--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -498,9 +494,7 @@
       <c r="J3" t="n">
         <v>15.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -541,9 +535,7 @@
       <c r="J4" t="n">
         <v>15.8</v>
       </c>
-      <c r="K4" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -582,9 +574,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -623,9 +613,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -664,9 +652,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -705,9 +691,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -746,9 +730,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -787,9 +769,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -828,9 +808,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -869,9 +847,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,9 +886,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -951,9 +925,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -992,9 +964,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1033,9 +1003,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1074,9 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1115,9 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1156,9 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1197,9 +1159,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,9 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1279,9 +1237,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1320,9 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1361,9 +1315,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1402,9 +1354,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1443,9 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1484,9 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1525,9 +1471,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1566,9 +1510,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1607,9 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1648,9 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1689,9 +1627,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1730,9 +1666,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,9 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1812,9 +1744,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1853,9 +1783,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,9 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1935,9 +1861,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,9 +1900,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2017,9 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,9 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2099,9 +2017,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2140,9 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,9 +2095,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,9 +2134,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2263,9 +2173,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2301,19 +2209,17 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1.039303797468355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2346,10 +2252,12 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2412,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>15.8</v>
       </c>
       <c r="F2" t="n">
-        <v>66633.60679999999</v>
+        <v>105400</v>
       </c>
       <c r="G2" t="n">
-        <v>15.83333333333334</v>
+        <v>15.83833333333334</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -477,29 +477,23 @@
         <v>15.8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F3" t="n">
-        <v>15062820.1368</v>
+        <v>66633.60679999999</v>
       </c>
       <c r="G3" t="n">
-        <v>15.83000000000001</v>
+        <v>15.83333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -518,29 +512,23 @@
         <v>15.8</v>
       </c>
       <c r="E4" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F4" t="n">
-        <v>6949277.9084</v>
+        <v>15062820.1368</v>
       </c>
       <c r="G4" t="n">
-        <v>15.82500000000001</v>
+        <v>15.83000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -562,10 +550,10 @@
         <v>15.8</v>
       </c>
       <c r="F5" t="n">
-        <v>11383173.0156</v>
+        <v>6949277.9084</v>
       </c>
       <c r="G5" t="n">
-        <v>15.82000000000001</v>
+        <v>15.82500000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -575,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -601,10 +585,10 @@
         <v>15.8</v>
       </c>
       <c r="F6" t="n">
-        <v>11420539.4088</v>
+        <v>11383173.0156</v>
       </c>
       <c r="G6" t="n">
-        <v>15.815</v>
+        <v>15.82000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -614,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -640,10 +620,10 @@
         <v>15.8</v>
       </c>
       <c r="F7" t="n">
-        <v>11442160.6224</v>
+        <v>11420539.4088</v>
       </c>
       <c r="G7" t="n">
-        <v>15.81</v>
+        <v>15.815</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -653,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,16 +649,16 @@
         <v>15.8</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E8" t="n">
         <v>15.8</v>
       </c>
       <c r="F8" t="n">
-        <v>6772441.7829</v>
+        <v>11442160.6224</v>
       </c>
       <c r="G8" t="n">
-        <v>15.80666666666667</v>
+        <v>15.81</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -692,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -718,10 +690,10 @@
         <v>15.8</v>
       </c>
       <c r="F9" t="n">
-        <v>9003381.189999999</v>
+        <v>6772441.7829</v>
       </c>
       <c r="G9" t="n">
-        <v>15.80333333333334</v>
+        <v>15.80666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -731,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -757,10 +725,10 @@
         <v>15.8</v>
       </c>
       <c r="F10" t="n">
-        <v>13798140.608</v>
+        <v>9003381.189999999</v>
       </c>
       <c r="G10" t="n">
-        <v>15.80166666666667</v>
+        <v>15.80333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -770,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -796,10 +760,10 @@
         <v>15.8</v>
       </c>
       <c r="F11" t="n">
-        <v>8410202.2871</v>
+        <v>13798140.608</v>
       </c>
       <c r="G11" t="n">
-        <v>15.79833333333334</v>
+        <v>15.80166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -809,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -826,7 +786,7 @@
         <v>15.8</v>
       </c>
       <c r="C12" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D12" t="n">
         <v>15.9</v>
@@ -835,7 +795,7 @@
         <v>15.8</v>
       </c>
       <c r="F12" t="n">
-        <v>205183.054</v>
+        <v>8410202.2871</v>
       </c>
       <c r="G12" t="n">
         <v>15.79833333333334</v>
@@ -848,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -862,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C13" t="n">
         <v>15.9</v>
@@ -871,13 +827,13 @@
         <v>15.9</v>
       </c>
       <c r="E13" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F13" t="n">
-        <v>12868.4538</v>
+        <v>205183.054</v>
       </c>
       <c r="G13" t="n">
-        <v>15.795</v>
+        <v>15.79833333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -887,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -913,7 +865,7 @@
         <v>15.9</v>
       </c>
       <c r="F14" t="n">
-        <v>1403</v>
+        <v>12868.4538</v>
       </c>
       <c r="G14" t="n">
         <v>15.795</v>
@@ -926,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -952,7 +900,7 @@
         <v>15.9</v>
       </c>
       <c r="F15" t="n">
-        <v>22247.0731</v>
+        <v>1403</v>
       </c>
       <c r="G15" t="n">
         <v>15.795</v>
@@ -965,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -979,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F16" t="n">
-        <v>88400</v>
+        <v>22247.0731</v>
       </c>
       <c r="G16" t="n">
-        <v>15.79666666666667</v>
+        <v>15.795</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1004,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1030,10 +970,10 @@
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>141800</v>
+        <v>88400</v>
       </c>
       <c r="G17" t="n">
-        <v>15.79833333333334</v>
+        <v>15.79666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1043,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1069,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>164506.8082</v>
+        <v>141800</v>
       </c>
       <c r="G18" t="n">
-        <v>15.8</v>
+        <v>15.79833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1082,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1108,10 +1040,10 @@
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>49600</v>
+        <v>164506.8082</v>
       </c>
       <c r="G19" t="n">
-        <v>15.80166666666667</v>
+        <v>15.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1121,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1147,10 +1075,10 @@
         <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>69.3091</v>
+        <v>49600</v>
       </c>
       <c r="G20" t="n">
-        <v>15.80333333333334</v>
+        <v>15.80166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1160,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1180,16 +1104,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>72659.473</v>
+        <v>69.3091</v>
       </c>
       <c r="G21" t="n">
-        <v>15.805</v>
+        <v>15.80333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1199,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1219,16 +1139,16 @@
         <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F22" t="n">
-        <v>8790.075999999999</v>
+        <v>72659.473</v>
       </c>
       <c r="G22" t="n">
-        <v>15.80666666666667</v>
+        <v>15.805</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1238,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1264,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>30395.4285</v>
+        <v>8790.075999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>15.80833333333334</v>
+        <v>15.80666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1277,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1291,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>5769.23</v>
+        <v>30395.4285</v>
       </c>
       <c r="G24" t="n">
-        <v>15.81166666666667</v>
+        <v>15.80833333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1316,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1250,10 @@
         <v>16.1</v>
       </c>
       <c r="F25" t="n">
-        <v>11439.5287</v>
+        <v>5769.23</v>
       </c>
       <c r="G25" t="n">
-        <v>15.815</v>
+        <v>15.81166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1355,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1381,10 +1285,10 @@
         <v>16.1</v>
       </c>
       <c r="F26" t="n">
-        <v>50192.2173</v>
+        <v>11439.5287</v>
       </c>
       <c r="G26" t="n">
-        <v>15.82000000000001</v>
+        <v>15.815</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1394,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F27" t="n">
-        <v>24024</v>
+        <v>50192.2173</v>
       </c>
       <c r="G27" t="n">
-        <v>15.82333333333334</v>
+        <v>15.82000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1433,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1447,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>1804</v>
+        <v>24024</v>
       </c>
       <c r="G28" t="n">
-        <v>15.82833333333334</v>
+        <v>15.82333333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1472,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1498,10 +1390,10 @@
         <v>16.1</v>
       </c>
       <c r="F29" t="n">
-        <v>6211.180124223602</v>
+        <v>1804</v>
       </c>
       <c r="G29" t="n">
-        <v>15.83166666666668</v>
+        <v>15.82833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1511,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1525,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C30" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D30" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F30" t="n">
-        <v>143194.8199</v>
+        <v>6211.180124223602</v>
       </c>
       <c r="G30" t="n">
-        <v>15.83666666666668</v>
+        <v>15.83166666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1550,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1564,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D31" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E31" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>144586.3975</v>
+        <v>143194.8199</v>
       </c>
       <c r="G31" t="n">
-        <v>15.84000000000001</v>
+        <v>15.83666666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1589,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1615,10 +1495,10 @@
         <v>16.1</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>144586.3975</v>
       </c>
       <c r="G32" t="n">
-        <v>15.84500000000001</v>
+        <v>15.84000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1628,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1654,10 +1530,10 @@
         <v>16.1</v>
       </c>
       <c r="F33" t="n">
-        <v>6560.7948</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>15.85166666666668</v>
+        <v>15.84500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1667,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1693,10 +1565,10 @@
         <v>16.1</v>
       </c>
       <c r="F34" t="n">
-        <v>199.5</v>
+        <v>6560.7948</v>
       </c>
       <c r="G34" t="n">
-        <v>15.85833333333334</v>
+        <v>15.85166666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1706,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1720,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C35" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D35" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E35" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F35" t="n">
-        <v>194076.4142</v>
+        <v>199.5</v>
       </c>
       <c r="G35" t="n">
-        <v>15.86666666666668</v>
+        <v>15.85833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1745,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1762,19 +1626,19 @@
         <v>16.2</v>
       </c>
       <c r="C36" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="D36" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="E36" t="n">
         <v>16.2</v>
       </c>
       <c r="F36" t="n">
-        <v>188050.306</v>
+        <v>194076.4142</v>
       </c>
       <c r="G36" t="n">
-        <v>15.87333333333334</v>
+        <v>15.86666666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1784,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1798,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="C37" t="n">
         <v>16.3</v>
@@ -1807,13 +1667,13 @@
         <v>16.3</v>
       </c>
       <c r="E37" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F37" t="n">
-        <v>30000</v>
+        <v>188050.306</v>
       </c>
       <c r="G37" t="n">
-        <v>15.88333333333334</v>
+        <v>15.87333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1823,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1849,10 +1705,10 @@
         <v>16.3</v>
       </c>
       <c r="F38" t="n">
-        <v>31400</v>
+        <v>30000</v>
       </c>
       <c r="G38" t="n">
-        <v>15.89166666666668</v>
+        <v>15.88333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1862,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1876,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="C39" t="n">
         <v>16.3</v>
@@ -1885,13 +1737,13 @@
         <v>16.3</v>
       </c>
       <c r="E39" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F39" t="n">
-        <v>5547.9109</v>
+        <v>31400</v>
       </c>
       <c r="G39" t="n">
-        <v>15.90000000000001</v>
+        <v>15.89166666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1901,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1915,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="C40" t="n">
         <v>16.3</v>
@@ -1924,13 +1772,13 @@
         <v>16.3</v>
       </c>
       <c r="E40" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F40" t="n">
-        <v>94030.5165</v>
+        <v>5547.9109</v>
       </c>
       <c r="G40" t="n">
-        <v>15.90833333333334</v>
+        <v>15.90000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1940,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1966,10 +1810,10 @@
         <v>16.3</v>
       </c>
       <c r="F41" t="n">
-        <v>8151.0158</v>
+        <v>94030.5165</v>
       </c>
       <c r="G41" t="n">
-        <v>15.91833333333334</v>
+        <v>15.90833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1979,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1996,19 +1836,19 @@
         <v>16.3</v>
       </c>
       <c r="C42" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D42" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E42" t="n">
         <v>16.3</v>
       </c>
       <c r="F42" t="n">
-        <v>107023.7132</v>
+        <v>8151.0158</v>
       </c>
       <c r="G42" t="n">
-        <v>15.93000000000001</v>
+        <v>15.91833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2018,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2032,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C43" t="n">
         <v>16.4</v>
@@ -2041,13 +1877,13 @@
         <v>16.4</v>
       </c>
       <c r="E43" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F43" t="n">
-        <v>173.1707</v>
+        <v>107023.7132</v>
       </c>
       <c r="G43" t="n">
-        <v>15.94166666666667</v>
+        <v>15.93000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2057,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2083,10 +1915,10 @@
         <v>16.4</v>
       </c>
       <c r="F44" t="n">
-        <v>565.1055</v>
+        <v>173.1707</v>
       </c>
       <c r="G44" t="n">
-        <v>15.95333333333334</v>
+        <v>15.94166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2096,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2110,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C45" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D45" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E45" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F45" t="n">
-        <v>140388.1212</v>
+        <v>565.1055</v>
       </c>
       <c r="G45" t="n">
-        <v>15.96666666666667</v>
+        <v>15.95333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2135,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2149,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C46" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D46" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E46" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="F46" t="n">
-        <v>57400</v>
+        <v>140388.1212</v>
       </c>
       <c r="G46" t="n">
-        <v>15.98166666666667</v>
+        <v>15.96666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2174,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2188,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="C47" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D47" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E47" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F47" t="n">
-        <v>99759.97500000001</v>
+        <v>57400</v>
       </c>
       <c r="G47" t="n">
-        <v>15.995</v>
+        <v>15.98166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2213,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2239,10 +2055,10 @@
         <v>16.5</v>
       </c>
       <c r="F48" t="n">
-        <v>107700</v>
+        <v>99759.97500000001</v>
       </c>
       <c r="G48" t="n">
-        <v>16.00833333333334</v>
+        <v>15.995</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2252,19 +2068,17 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C49" t="n">
         <v>16.5</v>
@@ -2273,19 +2087,19 @@
         <v>16.5</v>
       </c>
       <c r="E49" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F49" t="n">
-        <v>129423.8762</v>
+        <v>107700</v>
       </c>
       <c r="G49" t="n">
-        <v>16.02166666666667</v>
+        <v>16.00833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2299,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C50" t="n">
         <v>16.5</v>
@@ -2308,19 +2122,19 @@
         <v>16.5</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F50" t="n">
-        <v>44000</v>
+        <v>129423.8762</v>
       </c>
       <c r="G50" t="n">
-        <v>16.035</v>
+        <v>16.02166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2334,28 +2148,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C51" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D51" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E51" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>44000</v>
       </c>
       <c r="G51" t="n">
-        <v>16.04833333333334</v>
+        <v>16.035</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2369,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="C52" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D52" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E52" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F52" t="n">
-        <v>49140.4666</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>16.06166666666667</v>
+        <v>16.04833333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2407,19 +2221,19 @@
         <v>16.5</v>
       </c>
       <c r="C53" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D53" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E53" t="n">
         <v>16.5</v>
       </c>
       <c r="F53" t="n">
-        <v>148930.7168</v>
+        <v>49140.4666</v>
       </c>
       <c r="G53" t="n">
-        <v>16.075</v>
+        <v>16.06166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2442,19 +2256,19 @@
         <v>16.5</v>
       </c>
       <c r="C54" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D54" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E54" t="n">
         <v>16.5</v>
       </c>
       <c r="F54" t="n">
-        <v>34445.1976</v>
+        <v>148930.7168</v>
       </c>
       <c r="G54" t="n">
-        <v>16.08833333333333</v>
+        <v>16.075</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2474,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C55" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D55" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E55" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F55" t="n">
-        <v>108221.2894</v>
+        <v>34445.1976</v>
       </c>
       <c r="G55" t="n">
-        <v>16.1</v>
+        <v>16.08833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2521,10 +2335,10 @@
         <v>16.4</v>
       </c>
       <c r="F56" t="n">
-        <v>69710.04059999999</v>
+        <v>108221.2894</v>
       </c>
       <c r="G56" t="n">
-        <v>16.11166666666666</v>
+        <v>16.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2556,10 +2370,10 @@
         <v>16.4</v>
       </c>
       <c r="F57" t="n">
-        <v>57406.7043</v>
+        <v>69710.04059999999</v>
       </c>
       <c r="G57" t="n">
-        <v>16.12333333333333</v>
+        <v>16.11166666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2591,10 +2405,10 @@
         <v>16.4</v>
       </c>
       <c r="F58" t="n">
-        <v>12201.1463</v>
+        <v>57406.7043</v>
       </c>
       <c r="G58" t="n">
-        <v>16.135</v>
+        <v>16.12333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2614,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C59" t="n">
         <v>16.4</v>
@@ -2623,13 +2437,13 @@
         <v>16.4</v>
       </c>
       <c r="E59" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F59" t="n">
-        <v>131972.1143</v>
+        <v>12201.1463</v>
       </c>
       <c r="G59" t="n">
-        <v>16.14666666666666</v>
+        <v>16.135</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2649,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="C60" t="n">
         <v>16.4</v>
@@ -2658,13 +2472,13 @@
         <v>16.4</v>
       </c>
       <c r="E60" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="F60" t="n">
-        <v>2500</v>
+        <v>131972.1143</v>
       </c>
       <c r="G60" t="n">
-        <v>16.15666666666666</v>
+        <v>16.14666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2696,10 +2510,10 @@
         <v>16.4</v>
       </c>
       <c r="F61" t="n">
-        <v>191093.0711</v>
+        <v>2500</v>
       </c>
       <c r="G61" t="n">
-        <v>16.16666666666666</v>
+        <v>16.15666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2731,10 +2545,10 @@
         <v>16.4</v>
       </c>
       <c r="F62" t="n">
-        <v>42151.1041</v>
+        <v>191093.0711</v>
       </c>
       <c r="G62" t="n">
-        <v>16.17666666666666</v>
+        <v>16.16666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2766,10 +2580,10 @@
         <v>16.4</v>
       </c>
       <c r="F63" t="n">
-        <v>27099.1448</v>
+        <v>42151.1041</v>
       </c>
       <c r="G63" t="n">
-        <v>16.18666666666666</v>
+        <v>16.17666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2801,10 +2615,10 @@
         <v>16.4</v>
       </c>
       <c r="F64" t="n">
-        <v>15402</v>
+        <v>27099.1448</v>
       </c>
       <c r="G64" t="n">
-        <v>16.19666666666667</v>
+        <v>16.18666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2824,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C65" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D65" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E65" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>15402</v>
       </c>
       <c r="G65" t="n">
-        <v>16.20833333333333</v>
+        <v>16.19666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2871,10 +2685,10 @@
         <v>16.5</v>
       </c>
       <c r="F66" t="n">
-        <v>63535.0317</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>16.22</v>
+        <v>16.20833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2894,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C67" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D67" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E67" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F67" t="n">
-        <v>24782.8189</v>
+        <v>63535.0317</v>
       </c>
       <c r="G67" t="n">
-        <v>16.23</v>
+        <v>16.22</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2929,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C68" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D68" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E68" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F68" t="n">
-        <v>122039.2383</v>
+        <v>24782.8189</v>
       </c>
       <c r="G68" t="n">
-        <v>16.24166666666667</v>
+        <v>16.23</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2976,10 +2790,10 @@
         <v>16.5</v>
       </c>
       <c r="F69" t="n">
-        <v>90733.4811</v>
+        <v>122039.2383</v>
       </c>
       <c r="G69" t="n">
-        <v>16.25333333333333</v>
+        <v>16.24166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2999,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C70" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D70" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E70" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F70" t="n">
-        <v>169678.6416</v>
+        <v>90733.4811</v>
       </c>
       <c r="G70" t="n">
-        <v>16.26166666666667</v>
+        <v>16.25333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3034,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C71" t="n">
         <v>16.3</v>
       </c>
       <c r="D71" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E71" t="n">
         <v>16.3</v>
       </c>
       <c r="F71" t="n">
-        <v>73455.2547</v>
+        <v>169678.6416</v>
       </c>
       <c r="G71" t="n">
-        <v>16.27</v>
+        <v>16.26166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3069,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C72" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D72" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E72" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F72" t="n">
-        <v>91477.52740000001</v>
+        <v>73455.2547</v>
       </c>
       <c r="G72" t="n">
-        <v>16.27833333333333</v>
+        <v>16.27</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3104,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C73" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D73" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E73" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3030.303</v>
+        <v>91477.52740000001</v>
       </c>
       <c r="G73" t="n">
-        <v>16.28833333333333</v>
+        <v>16.27833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3151,10 +2965,10 @@
         <v>16.5</v>
       </c>
       <c r="F74" t="n">
-        <v>45600</v>
+        <v>3030.303</v>
       </c>
       <c r="G74" t="n">
-        <v>16.29833333333334</v>
+        <v>16.28833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3186,10 +3000,10 @@
         <v>16.5</v>
       </c>
       <c r="F75" t="n">
-        <v>24524.67</v>
+        <v>45600</v>
       </c>
       <c r="G75" t="n">
-        <v>16.30833333333333</v>
+        <v>16.29833333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3209,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C76" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D76" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E76" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F76" t="n">
-        <v>71600</v>
+        <v>24524.67</v>
       </c>
       <c r="G76" t="n">
-        <v>16.315</v>
+        <v>16.30833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3250,16 +3064,16 @@
         <v>16.4</v>
       </c>
       <c r="D77" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E77" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F77" t="n">
-        <v>8196.561</v>
+        <v>71600</v>
       </c>
       <c r="G77" t="n">
-        <v>16.32166666666667</v>
+        <v>16.315</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3285,16 +3099,16 @@
         <v>16.4</v>
       </c>
       <c r="D78" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E78" t="n">
         <v>16.4</v>
       </c>
       <c r="F78" t="n">
-        <v>9000</v>
+        <v>8196.561</v>
       </c>
       <c r="G78" t="n">
-        <v>16.32833333333333</v>
+        <v>16.32166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3320,16 +3134,16 @@
         <v>16.4</v>
       </c>
       <c r="D79" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E79" t="n">
         <v>16.4</v>
       </c>
       <c r="F79" t="n">
-        <v>63753.4804</v>
+        <v>9000</v>
       </c>
       <c r="G79" t="n">
-        <v>16.335</v>
+        <v>16.32833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3349,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C80" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D80" t="n">
         <v>16.5</v>
       </c>
       <c r="E80" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F80" t="n">
-        <v>187089.8356</v>
+        <v>63753.4804</v>
       </c>
       <c r="G80" t="n">
-        <v>16.34333333333333</v>
+        <v>16.335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3387,19 +3201,19 @@
         <v>16.5</v>
       </c>
       <c r="C81" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D81" t="n">
         <v>16.5</v>
       </c>
       <c r="E81" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F81" t="n">
-        <v>50467.5454</v>
+        <v>187089.8356</v>
       </c>
       <c r="G81" t="n">
-        <v>16.35</v>
+        <v>16.34333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3422,19 +3236,19 @@
         <v>16.5</v>
       </c>
       <c r="C82" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D82" t="n">
         <v>16.5</v>
       </c>
       <c r="E82" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F82" t="n">
-        <v>181.8181818181818</v>
+        <v>50467.5454</v>
       </c>
       <c r="G82" t="n">
-        <v>16.35833333333333</v>
+        <v>16.35</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3466,10 +3280,10 @@
         <v>16.5</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="G83" t="n">
-        <v>16.36666666666667</v>
+        <v>16.35833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3501,10 +3315,10 @@
         <v>16.5</v>
       </c>
       <c r="F84" t="n">
-        <v>618.2063181818182</v>
+        <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>16.37333333333333</v>
+        <v>16.36666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3533,13 +3347,13 @@
         <v>16.5</v>
       </c>
       <c r="E85" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F85" t="n">
-        <v>108800</v>
+        <v>618.2063181818182</v>
       </c>
       <c r="G85" t="n">
-        <v>16.38</v>
+        <v>16.37333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3568,13 +3382,13 @@
         <v>16.5</v>
       </c>
       <c r="E86" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F86" t="n">
-        <v>40200</v>
+        <v>108800</v>
       </c>
       <c r="G86" t="n">
-        <v>16.38666666666667</v>
+        <v>16.38</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3606,10 +3420,10 @@
         <v>16.5</v>
       </c>
       <c r="F87" t="n">
-        <v>60.60606060606061</v>
+        <v>40200</v>
       </c>
       <c r="G87" t="n">
-        <v>16.395</v>
+        <v>16.38666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3641,10 +3455,10 @@
         <v>16.5</v>
       </c>
       <c r="F88" t="n">
-        <v>6000</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="G88" t="n">
-        <v>16.40166666666666</v>
+        <v>16.395</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3676,10 +3490,10 @@
         <v>16.5</v>
       </c>
       <c r="F89" t="n">
-        <v>303.030303030303</v>
+        <v>6000</v>
       </c>
       <c r="G89" t="n">
-        <v>16.40833333333333</v>
+        <v>16.40166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3699,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C90" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D90" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E90" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F90" t="n">
-        <v>131781.0122</v>
+        <v>303.030303030303</v>
       </c>
       <c r="G90" t="n">
-        <v>16.41</v>
+        <v>16.40833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3734,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C91" t="n">
         <v>16.3</v>
       </c>
       <c r="D91" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E91" t="n">
         <v>16.3</v>
       </c>
       <c r="F91" t="n">
-        <v>20964.2792</v>
+        <v>131781.0122</v>
       </c>
       <c r="G91" t="n">
-        <v>16.41333333333333</v>
+        <v>16.41</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3781,10 +3595,10 @@
         <v>16.3</v>
       </c>
       <c r="F92" t="n">
-        <v>12417</v>
+        <v>20964.2792</v>
       </c>
       <c r="G92" t="n">
-        <v>16.41666666666666</v>
+        <v>16.41333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3816,10 +3630,10 @@
         <v>16.3</v>
       </c>
       <c r="F93" t="n">
-        <v>89405.24400000001</v>
+        <v>12417</v>
       </c>
       <c r="G93" t="n">
-        <v>16.41999999999999</v>
+        <v>16.41666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3848,13 +3662,13 @@
         <v>16.3</v>
       </c>
       <c r="E94" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F94" t="n">
-        <v>141642</v>
+        <v>89405.24400000001</v>
       </c>
       <c r="G94" t="n">
-        <v>16.42333333333332</v>
+        <v>16.41999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3874,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C95" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D95" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E95" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="F95" t="n">
-        <v>31257.3981</v>
+        <v>141642</v>
       </c>
       <c r="G95" t="n">
-        <v>16.42666666666666</v>
+        <v>16.42333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3909,19 +3723,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C96" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D96" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E96" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F96" t="n">
-        <v>34800</v>
+        <v>31257.3981</v>
       </c>
       <c r="G96" t="n">
         <v>16.42666666666666</v>
@@ -3956,7 +3770,7 @@
         <v>16.3</v>
       </c>
       <c r="F97" t="n">
-        <v>22920.0199</v>
+        <v>34800</v>
       </c>
       <c r="G97" t="n">
         <v>16.42666666666666</v>
@@ -3991,7 +3805,7 @@
         <v>16.3</v>
       </c>
       <c r="F98" t="n">
-        <v>10781.1224</v>
+        <v>22920.0199</v>
       </c>
       <c r="G98" t="n">
         <v>16.42666666666666</v>
@@ -4014,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="C99" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="D99" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="E99" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F99" t="n">
-        <v>652.365</v>
+        <v>10781.1224</v>
       </c>
       <c r="G99" t="n">
-        <v>16.42499999999999</v>
+        <v>16.42666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4049,16 +3863,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="C100" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="D100" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="E100" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F100" t="n">
         <v>652.365</v>
@@ -4084,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C101" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D101" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E101" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>652.365</v>
       </c>
       <c r="G101" t="n">
-        <v>16.42666666666666</v>
+        <v>16.42499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4122,19 +3936,19 @@
         <v>16.4</v>
       </c>
       <c r="C102" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D102" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E102" t="n">
         <v>16.4</v>
       </c>
       <c r="F102" t="n">
-        <v>215231.5757575757</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>16.42833333333333</v>
+        <v>16.42666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4157,16 +3971,16 @@
         <v>16.4</v>
       </c>
       <c r="C103" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D103" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E103" t="n">
         <v>16.4</v>
       </c>
       <c r="F103" t="n">
-        <v>50237.346</v>
+        <v>215231.5757575757</v>
       </c>
       <c r="G103" t="n">
         <v>16.42833333333333</v>
@@ -4201,7 +4015,7 @@
         <v>16.4</v>
       </c>
       <c r="F104" t="n">
-        <v>304.8780487804878</v>
+        <v>50237.346</v>
       </c>
       <c r="G104" t="n">
         <v>16.42833333333333</v>
@@ -4236,10 +4050,10 @@
         <v>16.4</v>
       </c>
       <c r="F105" t="n">
-        <v>871.8616512195122</v>
+        <v>304.8780487804878</v>
       </c>
       <c r="G105" t="n">
-        <v>16.42666666666666</v>
+        <v>16.42833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4259,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C106" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D106" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E106" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F106" t="n">
-        <v>107600</v>
+        <v>871.8616512195122</v>
       </c>
       <c r="G106" t="n">
-        <v>16.42499999999999</v>
+        <v>16.42666666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4306,7 +4120,7 @@
         <v>16.5</v>
       </c>
       <c r="F107" t="n">
-        <v>86724.9999</v>
+        <v>107600</v>
       </c>
       <c r="G107" t="n">
         <v>16.42499999999999</v>
@@ -4329,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C108" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D108" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E108" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F108" t="n">
-        <v>11800</v>
+        <v>86724.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>16.42333333333332</v>
+        <v>16.42499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4364,19 +4178,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C109" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D109" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E109" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F109" t="n">
-        <v>36115.9999</v>
+        <v>11800</v>
       </c>
       <c r="G109" t="n">
         <v>16.42333333333332</v>
@@ -4394,6 +4208,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>36115.9999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>16.42333333333332</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>105400</v>
       </c>
       <c r="G2" t="n">
+        <v>15.72666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>15.83833333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>66633.60679999999</v>
       </c>
       <c r="G3" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.83333333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>15062820.1368</v>
       </c>
       <c r="G4" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.83000000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>6949277.9084</v>
       </c>
       <c r="G5" t="n">
+        <v>15.74666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>15.82500000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>11383173.0156</v>
       </c>
       <c r="G6" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.82000000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>11420539.4088</v>
       </c>
       <c r="G7" t="n">
+        <v>15.75333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.815</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>11442160.6224</v>
       </c>
       <c r="G8" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H8" t="n">
         <v>15.81</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>6772441.7829</v>
       </c>
       <c r="G9" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.80666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>9003381.189999999</v>
       </c>
       <c r="G10" t="n">
+        <v>15.76666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.80333333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>13798140.608</v>
       </c>
       <c r="G11" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>15.80166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>8410202.2871</v>
       </c>
       <c r="G12" t="n">
+        <v>15.78000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>15.79833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>205183.054</v>
       </c>
       <c r="G13" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>15.79833333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,27 @@
         <v>12868.4538</v>
       </c>
       <c r="G14" t="n">
+        <v>15.80666666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>15.795</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,27 @@
         <v>1403</v>
       </c>
       <c r="G15" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>15.795</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>22247.0731</v>
       </c>
       <c r="G16" t="n">
+        <v>15.82666666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>15.795</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,27 @@
         <v>88400</v>
       </c>
       <c r="G17" t="n">
+        <v>15.84000000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>15.79666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1151,27 @@
         <v>141800</v>
       </c>
       <c r="G18" t="n">
+        <v>15.85333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>15.79833333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1195,27 @@
         <v>164506.8082</v>
       </c>
       <c r="G19" t="n">
-        <v>15.8</v>
+        <v>15.86666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1239,27 @@
         <v>49600</v>
       </c>
       <c r="G20" t="n">
+        <v>15.88000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>15.80166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1283,27 @@
         <v>69.3091</v>
       </c>
       <c r="G21" t="n">
+        <v>15.89333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>15.80333333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1327,27 @@
         <v>72659.473</v>
       </c>
       <c r="G22" t="n">
+        <v>15.90666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>15.805</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1371,27 @@
         <v>8790.075999999999</v>
       </c>
       <c r="G23" t="n">
+        <v>15.92000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>15.80666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1415,27 @@
         <v>30395.4285</v>
       </c>
       <c r="G24" t="n">
+        <v>15.93333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>15.80833333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1459,27 @@
         <v>5769.23</v>
       </c>
       <c r="G25" t="n">
+        <v>15.95333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>15.81166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1503,27 @@
         <v>11439.5287</v>
       </c>
       <c r="G26" t="n">
+        <v>15.97333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>15.815</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1547,27 @@
         <v>50192.2173</v>
       </c>
       <c r="G27" t="n">
+        <v>15.99333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>15.82000000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1591,27 @@
         <v>24024</v>
       </c>
       <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
         <v>15.82333333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1635,27 @@
         <v>1804</v>
       </c>
       <c r="G29" t="n">
+        <v>16.01333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>15.82833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1679,27 @@
         <v>6211.180124223602</v>
       </c>
       <c r="G30" t="n">
+        <v>16.02666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>15.83166666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1723,27 @@
         <v>143194.8199</v>
       </c>
       <c r="G31" t="n">
+        <v>16.04666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>15.83666666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1767,27 @@
         <v>144586.3975</v>
       </c>
       <c r="G32" t="n">
+        <v>16.05333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>15.84000000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1811,27 @@
         <v>5000</v>
       </c>
       <c r="G33" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="H33" t="n">
         <v>15.84500000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1855,27 @@
         <v>6560.7948</v>
       </c>
       <c r="G34" t="n">
+        <v>16.06666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>15.85166666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1899,27 @@
         <v>199.5</v>
       </c>
       <c r="G35" t="n">
+        <v>16.07333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>15.85833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1943,27 @@
         <v>194076.4142</v>
       </c>
       <c r="G36" t="n">
+        <v>16.08666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>15.86666666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1987,27 @@
         <v>188050.306</v>
       </c>
       <c r="G37" t="n">
+        <v>16.10666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>15.87333333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2031,27 @@
         <v>30000</v>
       </c>
       <c r="G38" t="n">
+        <v>16.12666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>15.88333333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2075,27 @@
         <v>31400</v>
       </c>
       <c r="G39" t="n">
+        <v>16.14666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>15.89166666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2119,27 @@
         <v>5547.9109</v>
       </c>
       <c r="G40" t="n">
+        <v>16.16000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>15.90000000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2163,27 @@
         <v>94030.5165</v>
       </c>
       <c r="G41" t="n">
+        <v>16.17333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>15.90833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2207,27 @@
         <v>8151.0158</v>
       </c>
       <c r="G42" t="n">
+        <v>16.18666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>15.91833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2251,27 @@
         <v>107023.7132</v>
       </c>
       <c r="G43" t="n">
+        <v>16.21333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>15.93000000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2295,27 @@
         <v>173.1707</v>
       </c>
       <c r="G44" t="n">
+        <v>16.23333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>15.94166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2339,27 @@
         <v>565.1055</v>
       </c>
       <c r="G45" t="n">
+        <v>16.25333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>15.95333333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2383,27 @@
         <v>140388.1212</v>
       </c>
       <c r="G46" t="n">
+        <v>16.27333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.96666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2427,27 @@
         <v>57400</v>
       </c>
       <c r="G47" t="n">
+        <v>16.30666666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>15.98166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2471,27 @@
         <v>99759.97500000001</v>
       </c>
       <c r="G48" t="n">
+        <v>16.33333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>15.995</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2515,27 @@
         <v>107700</v>
       </c>
       <c r="G49" t="n">
+        <v>16.36000000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>16.00833333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2559,27 @@
         <v>129423.8762</v>
       </c>
       <c r="G50" t="n">
+        <v>16.38666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>16.02166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2603,27 @@
         <v>44000</v>
       </c>
       <c r="G51" t="n">
+        <v>16.40666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>16.035</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2647,27 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
+        <v>16.42666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>16.04833333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2691,27 @@
         <v>49140.4666</v>
       </c>
       <c r="G53" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="H53" t="n">
         <v>16.06166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2735,27 @@
         <v>148930.7168</v>
       </c>
       <c r="G54" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="H54" t="n">
         <v>16.075</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2779,27 @@
         <v>34445.1976</v>
       </c>
       <c r="G55" t="n">
+        <v>16.47333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>16.08833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2823,27 @@
         <v>108221.2894</v>
       </c>
       <c r="G56" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="H56" t="n">
         <v>16.1</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2867,27 @@
         <v>69710.04059999999</v>
       </c>
       <c r="G57" t="n">
+        <v>16.48666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>16.11166666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2911,27 @@
         <v>57406.7043</v>
       </c>
       <c r="G58" t="n">
+        <v>16.48666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>16.12333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2955,27 @@
         <v>12201.1463</v>
       </c>
       <c r="G59" t="n">
+        <v>16.48666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>16.135</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2999,27 @@
         <v>131972.1143</v>
       </c>
       <c r="G60" t="n">
+        <v>16.48666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>16.14666666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3043,27 @@
         <v>2500</v>
       </c>
       <c r="G61" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="H61" t="n">
         <v>16.15666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,19 +3087,28 @@
         <v>191093.0711</v>
       </c>
       <c r="G62" t="n">
+        <v>16.46666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>16.16666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
+      <c r="L62" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>1.032974683544304</v>
       </c>
     </row>
     <row r="63">
@@ -2583,18 +3131,21 @@
         <v>42151.1041</v>
       </c>
       <c r="G63" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="H63" t="n">
         <v>16.17666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3169,21 @@
         <v>27099.1448</v>
       </c>
       <c r="G64" t="n">
+        <v>16.45333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>16.18666666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3207,21 @@
         <v>15402</v>
       </c>
       <c r="G65" t="n">
+        <v>16.44666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>16.19666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3245,21 @@
         <v>1000</v>
       </c>
       <c r="G66" t="n">
+        <v>16.44666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>16.20833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3283,21 @@
         <v>63535.0317</v>
       </c>
       <c r="G67" t="n">
+        <v>16.43999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>16.22</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3321,21 @@
         <v>24782.8189</v>
       </c>
       <c r="G68" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>16.23</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3359,21 @@
         <v>122039.2383</v>
       </c>
       <c r="G69" t="n">
+        <v>16.42666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>16.24166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3397,21 @@
         <v>90733.4811</v>
       </c>
       <c r="G70" t="n">
+        <v>16.42666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>16.25333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3435,21 @@
         <v>169678.6416</v>
       </c>
       <c r="G71" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="H71" t="n">
         <v>16.26166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3473,21 @@
         <v>73455.2547</v>
       </c>
       <c r="G72" t="n">
+        <v>16.41333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>16.27</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3511,21 @@
         <v>91477.52740000001</v>
       </c>
       <c r="G73" t="n">
+        <v>16.41333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>16.27833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3549,21 @@
         <v>3030.303</v>
       </c>
       <c r="G74" t="n">
+        <v>16.41999999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>16.28833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3587,21 @@
         <v>45600</v>
       </c>
       <c r="G75" t="n">
+        <v>16.42666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>16.29833333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3625,21 @@
         <v>24524.67</v>
       </c>
       <c r="G76" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>16.30833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3663,21 @@
         <v>71600</v>
       </c>
       <c r="G77" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>16.315</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3701,21 @@
         <v>8196.561</v>
       </c>
       <c r="G78" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>16.32166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3739,21 @@
         <v>9000</v>
       </c>
       <c r="G79" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>16.32833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3777,21 @@
         <v>63753.4804</v>
       </c>
       <c r="G80" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>16.335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3815,21 @@
         <v>187089.8356</v>
       </c>
       <c r="G81" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>16.34333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3853,21 @@
         <v>50467.5454</v>
       </c>
       <c r="G82" t="n">
+        <v>16.42666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>16.35</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3891,21 @@
         <v>181.8181818181818</v>
       </c>
       <c r="G83" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>16.35833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3929,21 @@
         <v>500</v>
       </c>
       <c r="G84" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>16.36666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3967,21 @@
         <v>618.2063181818182</v>
       </c>
       <c r="G85" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>16.37333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4005,21 @@
         <v>108800</v>
       </c>
       <c r="G86" t="n">
+        <v>16.44666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>16.38</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4043,21 @@
         <v>40200</v>
       </c>
       <c r="G87" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="H87" t="n">
         <v>16.38666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4081,21 @@
         <v>60.60606060606061</v>
       </c>
       <c r="G88" t="n">
+        <v>16.46666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>16.395</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4119,21 @@
         <v>6000</v>
       </c>
       <c r="G89" t="n">
+        <v>16.46666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>16.40166666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4157,21 @@
         <v>303.030303030303</v>
       </c>
       <c r="G90" t="n">
+        <v>16.46666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>16.40833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4195,21 @@
         <v>131781.0122</v>
       </c>
       <c r="G91" t="n">
+        <v>16.45333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>16.41</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4233,21 @@
         <v>20964.2792</v>
       </c>
       <c r="G92" t="n">
+        <v>16.44666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>16.41333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4271,21 @@
         <v>12417</v>
       </c>
       <c r="G93" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="H93" t="n">
         <v>16.41666666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4309,21 @@
         <v>89405.24400000001</v>
       </c>
       <c r="G94" t="n">
+        <v>16.43333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>16.41999999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4347,21 @@
         <v>141642</v>
       </c>
       <c r="G95" t="n">
+        <v>16.42666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>16.42333333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4385,21 @@
         <v>31257.3981</v>
       </c>
       <c r="G96" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="H96" t="n">
         <v>16.42666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4423,21 @@
         <v>34800</v>
       </c>
       <c r="G97" t="n">
+        <v>16.41333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>16.42666666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4461,21 @@
         <v>22920.0199</v>
       </c>
       <c r="G98" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H98" t="n">
         <v>16.42666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4499,21 @@
         <v>10781.1224</v>
       </c>
       <c r="G99" t="n">
+        <v>16.38666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>16.42666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4537,21 @@
         <v>652.365</v>
       </c>
       <c r="G100" t="n">
+        <v>16.36666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>16.42499999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4575,21 @@
         <v>652.365</v>
       </c>
       <c r="G101" t="n">
+        <v>16.35333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>16.42499999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4613,21 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
+        <v>16.34666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>16.42666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4651,21 @@
         <v>215231.5757575757</v>
       </c>
       <c r="G103" t="n">
+        <v>16.34666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>16.42833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4689,21 @@
         <v>50237.346</v>
       </c>
       <c r="G104" t="n">
+        <v>16.33999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>16.42833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4727,21 @@
         <v>304.8780487804878</v>
       </c>
       <c r="G105" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>16.42833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4765,21 @@
         <v>871.8616512195122</v>
       </c>
       <c r="G106" t="n">
+        <v>16.33999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>16.42666666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4803,21 @@
         <v>107600</v>
       </c>
       <c r="G107" t="n">
+        <v>16.35333333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>16.42499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4841,21 @@
         <v>86724.9999</v>
       </c>
       <c r="G108" t="n">
+        <v>16.36666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>16.42499999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4879,21 @@
         <v>11800</v>
       </c>
       <c r="G109" t="n">
+        <v>16.37333333333332</v>
+      </c>
+      <c r="H109" t="n">
         <v>16.42333333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4917,401 @@
         <v>36115.9999</v>
       </c>
       <c r="G110" t="n">
+        <v>16.38666666666665</v>
+      </c>
+      <c r="H110" t="n">
         <v>16.42333333333332</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>75657.5866</v>
+      </c>
+      <c r="G111" t="n">
+        <v>16.39333333333332</v>
+      </c>
+      <c r="H111" t="n">
+        <v>16.42333333333332</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>30200</v>
+      </c>
+      <c r="G112" t="n">
+        <v>16.40666666666665</v>
+      </c>
+      <c r="H112" t="n">
+        <v>16.42166666666666</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20753.846</v>
+      </c>
+      <c r="G113" t="n">
+        <v>16.41999999999998</v>
+      </c>
+      <c r="H113" t="n">
+        <v>16.42166666666666</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>117596</v>
+      </c>
+      <c r="G114" t="n">
+        <v>16.43333333333332</v>
+      </c>
+      <c r="H114" t="n">
+        <v>16.41999999999999</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>16800</v>
+      </c>
+      <c r="G115" t="n">
+        <v>16.45333333333332</v>
+      </c>
+      <c r="H115" t="n">
+        <v>16.41999999999999</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>179.0422</v>
+      </c>
+      <c r="G116" t="n">
+        <v>16.46666666666665</v>
+      </c>
+      <c r="H116" t="n">
+        <v>16.42166666666666</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>43979.7437</v>
+      </c>
+      <c r="G117" t="n">
+        <v>16.48666666666665</v>
+      </c>
+      <c r="H117" t="n">
+        <v>16.42666666666666</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>41600</v>
+      </c>
+      <c r="G118" t="n">
+        <v>16.49999999999998</v>
+      </c>
+      <c r="H118" t="n">
+        <v>16.43166666666666</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>93591.2061</v>
+      </c>
+      <c r="G119" t="n">
+        <v>16.51999999999998</v>
+      </c>
+      <c r="H119" t="n">
+        <v>16.43666666666666</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>55019.2534</v>
+      </c>
+      <c r="G120" t="n">
+        <v>16.53333333333331</v>
+      </c>
+      <c r="H120" t="n">
+        <v>16.43999999999999</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C2" t="n">
         <v>15.8</v>
       </c>
       <c r="D2" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E2" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F2" t="n">
-        <v>105400</v>
+        <v>277863.4892</v>
       </c>
       <c r="G2" t="n">
-        <v>15.72666666666666</v>
+        <v>-254604.7737937889</v>
       </c>
       <c r="H2" t="n">
-        <v>15.83833333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -479,37 +471,30 @@
         <v>15.8</v>
       </c>
       <c r="C3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D3" t="n">
         <v>15.8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F3" t="n">
-        <v>66633.60679999999</v>
+        <v>310495.4227</v>
       </c>
       <c r="G3" t="n">
-        <v>15.73333333333333</v>
+        <v>-565100.1964937889</v>
       </c>
       <c r="H3" t="n">
-        <v>15.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C4" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E4" t="n">
         <v>15.7</v>
       </c>
       <c r="F4" t="n">
-        <v>15062820.1368</v>
+        <v>7767.1427</v>
       </c>
       <c r="G4" t="n">
-        <v>15.74</v>
+        <v>-565100.1964937889</v>
       </c>
       <c r="H4" t="n">
-        <v>15.83000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F5" t="n">
-        <v>6949277.9084</v>
+        <v>71375.1014</v>
       </c>
       <c r="G5" t="n">
-        <v>15.74666666666667</v>
+        <v>-565100.1964937889</v>
       </c>
       <c r="H5" t="n">
-        <v>15.82500000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D6" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E6" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F6" t="n">
-        <v>11383173.0156</v>
+        <v>1519.1415</v>
       </c>
       <c r="G6" t="n">
-        <v>15.75333333333333</v>
+        <v>-563581.0549937888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.82000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E7" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F7" t="n">
-        <v>11420539.4088</v>
+        <v>191404.4058</v>
       </c>
       <c r="G7" t="n">
-        <v>15.75333333333333</v>
+        <v>-754985.4607937888</v>
       </c>
       <c r="H7" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,30 +655,21 @@
         <v>15.8</v>
       </c>
       <c r="F8" t="n">
-        <v>11442160.6224</v>
+        <v>24000</v>
       </c>
       <c r="G8" t="n">
-        <v>15.76</v>
+        <v>-730985.4607937888</v>
       </c>
       <c r="H8" t="n">
-        <v>15.81</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,36 +684,27 @@
         <v>15.8</v>
       </c>
       <c r="D9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E9" t="n">
         <v>15.8</v>
       </c>
       <c r="F9" t="n">
-        <v>6772441.7829</v>
+        <v>40648</v>
       </c>
       <c r="G9" t="n">
-        <v>15.76</v>
+        <v>-730985.4607937888</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,36 +719,27 @@
         <v>15.8</v>
       </c>
       <c r="D10" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E10" t="n">
         <v>15.8</v>
       </c>
       <c r="F10" t="n">
-        <v>9003381.189999999</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="n">
-        <v>15.76666666666667</v>
+        <v>-730985.4607937888</v>
       </c>
       <c r="H10" t="n">
-        <v>15.80333333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C11" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D11" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E11" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F11" t="n">
-        <v>13798140.608</v>
+        <v>635540.9846</v>
       </c>
       <c r="G11" t="n">
-        <v>15.77333333333334</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H11" t="n">
-        <v>15.80166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C12" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D12" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E12" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F12" t="n">
-        <v>8410202.2871</v>
+        <v>12291.5923</v>
       </c>
       <c r="G12" t="n">
-        <v>15.78000000000001</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H12" t="n">
-        <v>15.79833333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C13" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E13" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F13" t="n">
-        <v>205183.054</v>
+        <v>1153.846</v>
       </c>
       <c r="G13" t="n">
-        <v>15.79333333333334</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H13" t="n">
-        <v>15.79833333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -960,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C14" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D14" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E14" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F14" t="n">
-        <v>12868.4538</v>
+        <v>173729.69</v>
       </c>
       <c r="G14" t="n">
-        <v>15.80666666666668</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H14" t="n">
-        <v>15.795</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C15" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D15" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E15" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1403</v>
+        <v>20041.9154</v>
       </c>
       <c r="G15" t="n">
-        <v>15.82000000000001</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H15" t="n">
-        <v>15.795</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1048,42 +923,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E16" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F16" t="n">
-        <v>22247.0731</v>
+        <v>1075.8114</v>
       </c>
       <c r="G16" t="n">
-        <v>15.82666666666668</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H16" t="n">
-        <v>15.795</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1092,42 +962,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F17" t="n">
-        <v>88400</v>
+        <v>79026.5408</v>
       </c>
       <c r="G17" t="n">
-        <v>15.84000000000001</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H17" t="n">
-        <v>15.79666666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1136,42 +1003,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F18" t="n">
-        <v>141800</v>
+        <v>37419.4052</v>
       </c>
       <c r="G18" t="n">
-        <v>15.85333333333334</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H18" t="n">
-        <v>15.79833333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,42 +1044,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F19" t="n">
-        <v>164506.8082</v>
+        <v>10090.3004</v>
       </c>
       <c r="G19" t="n">
-        <v>15.86666666666667</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H19" t="n">
-        <v>15.8</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,42 +1083,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F20" t="n">
-        <v>49600</v>
+        <v>46405.8494</v>
       </c>
       <c r="G20" t="n">
-        <v>15.88000000000001</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H20" t="n">
-        <v>15.80166666666667</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,42 +1126,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F21" t="n">
-        <v>69.3091</v>
+        <v>14817.1772</v>
       </c>
       <c r="G21" t="n">
-        <v>15.89333333333334</v>
+        <v>-1351709.268193789</v>
       </c>
       <c r="H21" t="n">
-        <v>15.80333333333334</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,42 +1169,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D22" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="E22" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F22" t="n">
-        <v>72659.473</v>
+        <v>18002.9924</v>
       </c>
       <c r="G22" t="n">
-        <v>15.90666666666667</v>
+        <v>-1369712.260593789</v>
       </c>
       <c r="H22" t="n">
-        <v>15.805</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1356,42 +1204,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F23" t="n">
-        <v>8790.075999999999</v>
+        <v>49191.9177</v>
       </c>
       <c r="G23" t="n">
-        <v>15.92000000000001</v>
+        <v>-1320520.342893789</v>
       </c>
       <c r="H23" t="n">
-        <v>15.80666666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,42 +1239,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F24" t="n">
-        <v>30395.4285</v>
+        <v>3426.0128</v>
       </c>
       <c r="G24" t="n">
-        <v>15.93333333333334</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H24" t="n">
-        <v>15.80833333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,42 +1274,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C25" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D25" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E25" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F25" t="n">
-        <v>5769.23</v>
+        <v>53682.0883</v>
       </c>
       <c r="G25" t="n">
-        <v>15.95333333333334</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H25" t="n">
-        <v>15.81166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1488,42 +1309,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C26" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D26" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E26" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F26" t="n">
-        <v>11439.5287</v>
+        <v>3648.019</v>
       </c>
       <c r="G26" t="n">
-        <v>15.97333333333333</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H26" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,42 +1344,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C27" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D27" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E27" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F27" t="n">
-        <v>50192.2173</v>
+        <v>69757.7934</v>
       </c>
       <c r="G27" t="n">
-        <v>15.99333333333333</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H27" t="n">
-        <v>15.82000000000001</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,42 +1379,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>24024</v>
+        <v>399068.5075</v>
       </c>
       <c r="G28" t="n">
-        <v>16</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H28" t="n">
-        <v>15.82333333333334</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,42 +1414,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C29" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E29" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>1804</v>
+        <v>275.7058</v>
       </c>
       <c r="G29" t="n">
-        <v>16.01333333333334</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H29" t="n">
-        <v>15.82833333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1664,42 +1449,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="C30" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D30" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E30" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>6211.180124223602</v>
+        <v>36800</v>
       </c>
       <c r="G30" t="n">
-        <v>16.02666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H30" t="n">
-        <v>15.83166666666668</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,42 +1484,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C31" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="D31" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F31" t="n">
-        <v>143194.8199</v>
+        <v>105400</v>
       </c>
       <c r="G31" t="n">
-        <v>16.04666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H31" t="n">
-        <v>15.83666666666668</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,42 +1523,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="C32" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D32" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E32" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F32" t="n">
-        <v>144586.3975</v>
+        <v>66633.60679999999</v>
       </c>
       <c r="G32" t="n">
-        <v>16.05333333333333</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H32" t="n">
-        <v>15.84000000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,42 +1564,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="C33" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D33" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E33" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>15062820.1368</v>
       </c>
       <c r="G33" t="n">
-        <v>16.06</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H33" t="n">
-        <v>15.84500000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1840,42 +1605,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="C34" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D34" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E34" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F34" t="n">
-        <v>6560.7948</v>
+        <v>6949277.9084</v>
       </c>
       <c r="G34" t="n">
-        <v>16.06666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H34" t="n">
-        <v>15.85166666666668</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,42 +1646,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="C35" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D35" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E35" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F35" t="n">
-        <v>199.5</v>
+        <v>11383173.0156</v>
       </c>
       <c r="G35" t="n">
-        <v>16.07333333333334</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H35" t="n">
-        <v>15.85833333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,42 +1687,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="C36" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="D36" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="E36" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="F36" t="n">
-        <v>194076.4142</v>
+        <v>11420539.4088</v>
       </c>
       <c r="G36" t="n">
-        <v>16.08666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H36" t="n">
-        <v>15.86666666666668</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,42 +1728,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="C37" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D37" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="E37" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>188050.306</v>
+        <v>11442160.6224</v>
       </c>
       <c r="G37" t="n">
-        <v>16.10666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H37" t="n">
-        <v>15.87333333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,42 +1769,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C38" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D38" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E38" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F38" t="n">
-        <v>30000</v>
+        <v>6772441.7829</v>
       </c>
       <c r="G38" t="n">
-        <v>16.12666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H38" t="n">
-        <v>15.88333333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2060,42 +1810,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C39" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D39" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E39" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F39" t="n">
-        <v>31400</v>
+        <v>9003381.189999999</v>
       </c>
       <c r="G39" t="n">
-        <v>16.14666666666667</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H39" t="n">
-        <v>15.89166666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2104,42 +1851,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D40" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E40" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="F40" t="n">
-        <v>5547.9109</v>
+        <v>13798140.608</v>
       </c>
       <c r="G40" t="n">
-        <v>16.16000000000001</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H40" t="n">
-        <v>15.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,42 +1892,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C41" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D41" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E41" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F41" t="n">
-        <v>94030.5165</v>
+        <v>8410202.2871</v>
       </c>
       <c r="G41" t="n">
-        <v>16.17333333333334</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H41" t="n">
-        <v>15.90833333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2192,42 +1933,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C42" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="D42" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E42" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F42" t="n">
-        <v>8151.0158</v>
+        <v>205183.054</v>
       </c>
       <c r="G42" t="n">
-        <v>16.18666666666667</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H42" t="n">
-        <v>15.91833333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,42 +1974,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="C43" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="D43" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="E43" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="F43" t="n">
-        <v>107023.7132</v>
+        <v>12868.4538</v>
       </c>
       <c r="G43" t="n">
-        <v>16.21333333333334</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H43" t="n">
-        <v>15.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,42 +2015,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="C44" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="D44" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="E44" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="F44" t="n">
-        <v>173.1707</v>
+        <v>1403</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23333333333334</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H44" t="n">
-        <v>15.94166666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2324,42 +2056,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="C45" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="D45" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="E45" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="F45" t="n">
-        <v>565.1055</v>
+        <v>22247.0731</v>
       </c>
       <c r="G45" t="n">
-        <v>16.25333333333334</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H45" t="n">
-        <v>15.95333333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,42 +2097,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
-        <v>140388.1212</v>
+        <v>88400</v>
       </c>
       <c r="G46" t="n">
-        <v>16.27333333333334</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H46" t="n">
-        <v>15.96666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,42 +2138,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
-        <v>57400</v>
+        <v>141800</v>
       </c>
       <c r="G47" t="n">
-        <v>16.30666666666668</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H47" t="n">
-        <v>15.98166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,42 +2179,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F48" t="n">
-        <v>99759.97500000001</v>
+        <v>164506.8082</v>
       </c>
       <c r="G48" t="n">
-        <v>16.33333333333334</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H48" t="n">
-        <v>15.995</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2500,42 +2220,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>107700</v>
+        <v>49600</v>
       </c>
       <c r="G49" t="n">
-        <v>16.36000000000001</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H49" t="n">
-        <v>16.00833333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,42 +2261,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="F50" t="n">
-        <v>129423.8762</v>
+        <v>69.3091</v>
       </c>
       <c r="G50" t="n">
-        <v>16.38666666666667</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H50" t="n">
-        <v>16.02166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,42 +2302,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="E51" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="F51" t="n">
-        <v>44000</v>
+        <v>72659.473</v>
       </c>
       <c r="G51" t="n">
-        <v>16.40666666666667</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H51" t="n">
-        <v>16.035</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,42 +2343,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>8790.075999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>16.42666666666667</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H52" t="n">
-        <v>16.04833333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,42 +2384,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F53" t="n">
-        <v>49140.4666</v>
+        <v>30395.4285</v>
       </c>
       <c r="G53" t="n">
-        <v>16.44</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H53" t="n">
-        <v>16.06166666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,42 +2425,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="C54" t="n">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="D54" t="n">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="E54" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="F54" t="n">
-        <v>148930.7168</v>
+        <v>5769.23</v>
       </c>
       <c r="G54" t="n">
-        <v>16.46</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H54" t="n">
-        <v>16.075</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,42 +2466,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="C55" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="D55" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="F55" t="n">
-        <v>34445.1976</v>
+        <v>11439.5287</v>
       </c>
       <c r="G55" t="n">
-        <v>16.47333333333334</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H55" t="n">
-        <v>16.08833333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,42 +2507,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C56" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D56" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E56" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F56" t="n">
-        <v>108221.2894</v>
+        <v>50192.2173</v>
       </c>
       <c r="G56" t="n">
-        <v>16.48</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H56" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,42 +2548,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>69710.04059999999</v>
+        <v>24024</v>
       </c>
       <c r="G57" t="n">
-        <v>16.48666666666667</v>
+        <v>-1011818.071693789</v>
       </c>
       <c r="H57" t="n">
-        <v>16.11166666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,42 +2589,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C58" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D58" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E58" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F58" t="n">
-        <v>57406.7043</v>
+        <v>1804</v>
       </c>
       <c r="G58" t="n">
-        <v>16.48666666666666</v>
+        <v>-1010014.071693789</v>
       </c>
       <c r="H58" t="n">
-        <v>16.12333333333333</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>16</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,42 +2632,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C59" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D59" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E59" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F59" t="n">
-        <v>12201.1463</v>
+        <v>6211.180124223602</v>
       </c>
       <c r="G59" t="n">
-        <v>16.48666666666666</v>
+        <v>-1010014.071693789</v>
       </c>
       <c r="H59" t="n">
-        <v>16.135</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,42 +2675,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>16</v>
+      </c>
+      <c r="C60" t="n">
         <v>16.2</v>
       </c>
-      <c r="C60" t="n">
-        <v>16.4</v>
-      </c>
       <c r="D60" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="E60" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>131972.1143</v>
+        <v>143194.8199</v>
       </c>
       <c r="G60" t="n">
-        <v>16.48666666666666</v>
+        <v>-866819.2517937885</v>
       </c>
       <c r="H60" t="n">
-        <v>16.14666666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,42 +2716,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C61" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D61" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E61" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F61" t="n">
-        <v>2500</v>
+        <v>144586.3975</v>
       </c>
       <c r="G61" t="n">
-        <v>16.48</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H61" t="n">
-        <v>16.15666666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,43 +2757,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C62" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D62" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E62" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F62" t="n">
-        <v>191093.0711</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>16.46666666666667</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H62" t="n">
-        <v>16.16666666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>1.032974683544304</v>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3116,36 +2798,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C63" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D63" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E63" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F63" t="n">
-        <v>42151.1041</v>
+        <v>6560.7948</v>
       </c>
       <c r="G63" t="n">
-        <v>16.46</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H63" t="n">
-        <v>16.17666666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,36 +2839,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C64" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D64" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E64" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F64" t="n">
-        <v>27099.1448</v>
+        <v>199.5</v>
       </c>
       <c r="G64" t="n">
-        <v>16.45333333333333</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H64" t="n">
-        <v>16.18666666666666</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,36 +2882,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="C65" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="D65" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="E65" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="F65" t="n">
-        <v>15402</v>
+        <v>194076.4142</v>
       </c>
       <c r="G65" t="n">
-        <v>16.44666666666666</v>
+        <v>-817329.2350937885</v>
       </c>
       <c r="H65" t="n">
-        <v>16.19666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,36 +2923,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C66" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D66" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E66" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>188050.306</v>
       </c>
       <c r="G66" t="n">
-        <v>16.44666666666666</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H66" t="n">
-        <v>16.20833333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,36 +2964,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C67" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D67" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E67" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F67" t="n">
-        <v>63535.0317</v>
+        <v>30000</v>
       </c>
       <c r="G67" t="n">
-        <v>16.43999999999999</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H67" t="n">
-        <v>16.22</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,36 +3005,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C68" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D68" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E68" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F68" t="n">
-        <v>24782.8189</v>
+        <v>31400</v>
       </c>
       <c r="G68" t="n">
-        <v>16.43333333333333</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H68" t="n">
-        <v>16.23</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,36 +3046,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C69" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D69" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E69" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F69" t="n">
-        <v>122039.2383</v>
+        <v>5547.9109</v>
       </c>
       <c r="G69" t="n">
-        <v>16.42666666666666</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H69" t="n">
-        <v>16.24166666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,36 +3087,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C70" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D70" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E70" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F70" t="n">
-        <v>90733.4811</v>
+        <v>94030.5165</v>
       </c>
       <c r="G70" t="n">
-        <v>16.42666666666667</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H70" t="n">
-        <v>16.25333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,36 +3128,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C71" t="n">
         <v>16.3</v>
       </c>
       <c r="D71" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E71" t="n">
         <v>16.3</v>
       </c>
       <c r="F71" t="n">
-        <v>169678.6416</v>
+        <v>8151.0158</v>
       </c>
       <c r="G71" t="n">
-        <v>16.42</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H71" t="n">
-        <v>16.26166666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3461,33 +3172,36 @@
         <v>16.3</v>
       </c>
       <c r="C72" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D72" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E72" t="n">
         <v>16.3</v>
       </c>
       <c r="F72" t="n">
-        <v>73455.2547</v>
+        <v>107023.7132</v>
       </c>
       <c r="G72" t="n">
-        <v>16.41333333333333</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H72" t="n">
-        <v>16.27</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,24 +3222,27 @@
         <v>16.4</v>
       </c>
       <c r="F73" t="n">
-        <v>91477.52740000001</v>
+        <v>173.1707</v>
       </c>
       <c r="G73" t="n">
-        <v>16.41333333333333</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H73" t="n">
-        <v>16.27833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,36 +3251,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C74" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D74" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E74" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F74" t="n">
-        <v>3030.303</v>
+        <v>565.1055</v>
       </c>
       <c r="G74" t="n">
-        <v>16.41999999999999</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H74" t="n">
-        <v>16.28833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,24 +3304,27 @@
         <v>16.5</v>
       </c>
       <c r="F75" t="n">
-        <v>45600</v>
+        <v>140388.1212</v>
       </c>
       <c r="G75" t="n">
-        <v>16.42666666666666</v>
+        <v>-381867.0946937885</v>
       </c>
       <c r="H75" t="n">
-        <v>16.29833333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,36 +3333,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="C76" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D76" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E76" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F76" t="n">
-        <v>24524.67</v>
+        <v>57400</v>
       </c>
       <c r="G76" t="n">
-        <v>16.43333333333333</v>
+        <v>-324467.0946937885</v>
       </c>
       <c r="H76" t="n">
-        <v>16.30833333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,36 +3374,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C77" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D77" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E77" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F77" t="n">
-        <v>71600</v>
+        <v>99759.97500000001</v>
       </c>
       <c r="G77" t="n">
-        <v>16.43333333333333</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H77" t="n">
-        <v>16.315</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,36 +3415,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C78" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D78" t="n">
         <v>16.5</v>
       </c>
       <c r="E78" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F78" t="n">
-        <v>8196.561</v>
+        <v>107700</v>
       </c>
       <c r="G78" t="n">
-        <v>16.43333333333333</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H78" t="n">
-        <v>16.32166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,33 +3459,36 @@
         <v>16.4</v>
       </c>
       <c r="C79" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D79" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E79" t="n">
         <v>16.4</v>
       </c>
       <c r="F79" t="n">
-        <v>9000</v>
+        <v>129423.8762</v>
       </c>
       <c r="G79" t="n">
-        <v>16.43333333333333</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H79" t="n">
-        <v>16.32833333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,36 +3497,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C80" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D80" t="n">
         <v>16.5</v>
       </c>
       <c r="E80" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F80" t="n">
-        <v>63753.4804</v>
+        <v>44000</v>
       </c>
       <c r="G80" t="n">
-        <v>16.43333333333333</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H80" t="n">
-        <v>16.335</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,36 +3538,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="C81" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D81" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E81" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F81" t="n">
-        <v>187089.8356</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>16.43333333333333</v>
+        <v>-424217.0696937885</v>
       </c>
       <c r="H81" t="n">
-        <v>16.34333333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3841,33 +3582,36 @@
         <v>16.5</v>
       </c>
       <c r="C82" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D82" t="n">
         <v>16.5</v>
       </c>
       <c r="E82" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F82" t="n">
-        <v>50467.5454</v>
+        <v>49140.4666</v>
       </c>
       <c r="G82" t="n">
-        <v>16.42666666666667</v>
+        <v>-473357.5362937885</v>
       </c>
       <c r="H82" t="n">
-        <v>16.35</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,33 +3623,36 @@
         <v>16.5</v>
       </c>
       <c r="C83" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="D83" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="E83" t="n">
         <v>16.5</v>
       </c>
       <c r="F83" t="n">
-        <v>181.8181818181818</v>
+        <v>148930.7168</v>
       </c>
       <c r="G83" t="n">
-        <v>16.43333333333333</v>
+        <v>-324426.8194937885</v>
       </c>
       <c r="H83" t="n">
-        <v>16.35833333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,24 +3673,27 @@
         <v>16.5</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>34445.1976</v>
       </c>
       <c r="G84" t="n">
-        <v>16.43333333333333</v>
+        <v>-358872.0170937885</v>
       </c>
       <c r="H84" t="n">
-        <v>16.36666666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,36 +3702,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C85" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D85" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E85" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F85" t="n">
-        <v>618.2063181818182</v>
+        <v>108221.2894</v>
       </c>
       <c r="G85" t="n">
-        <v>16.43333333333333</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H85" t="n">
-        <v>16.37333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,36 +3743,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C86" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D86" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E86" t="n">
         <v>16.4</v>
       </c>
       <c r="F86" t="n">
-        <v>108800</v>
+        <v>69710.04059999999</v>
       </c>
       <c r="G86" t="n">
-        <v>16.44666666666667</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H86" t="n">
-        <v>16.38</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,36 +3784,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C87" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D87" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E87" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F87" t="n">
-        <v>40200</v>
+        <v>57406.7043</v>
       </c>
       <c r="G87" t="n">
-        <v>16.46</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H87" t="n">
-        <v>16.38666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,36 +3825,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C88" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D88" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E88" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F88" t="n">
-        <v>60.60606060606061</v>
+        <v>12201.1463</v>
       </c>
       <c r="G88" t="n">
-        <v>16.46666666666667</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H88" t="n">
-        <v>16.395</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,36 +3866,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C89" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D89" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E89" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F89" t="n">
-        <v>6000</v>
+        <v>131972.1143</v>
       </c>
       <c r="G89" t="n">
-        <v>16.46666666666667</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H89" t="n">
-        <v>16.40166666666666</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,36 +3907,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C90" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D90" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E90" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F90" t="n">
-        <v>303.030303030303</v>
+        <v>2500</v>
       </c>
       <c r="G90" t="n">
-        <v>16.46666666666667</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H90" t="n">
-        <v>16.40833333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,33 +3951,36 @@
         <v>16.4</v>
       </c>
       <c r="C91" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D91" t="n">
         <v>16.4</v>
       </c>
       <c r="E91" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F91" t="n">
-        <v>131781.0122</v>
+        <v>191093.0711</v>
       </c>
       <c r="G91" t="n">
-        <v>16.45333333333333</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H91" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,36 +3989,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C92" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D92" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E92" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F92" t="n">
-        <v>20964.2792</v>
+        <v>42151.1041</v>
       </c>
       <c r="G92" t="n">
-        <v>16.44666666666667</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H92" t="n">
-        <v>16.41333333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,36 +4030,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C93" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D93" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E93" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F93" t="n">
-        <v>12417</v>
+        <v>27099.1448</v>
       </c>
       <c r="G93" t="n">
-        <v>16.44</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H93" t="n">
-        <v>16.41666666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,36 +4071,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C94" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D94" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E94" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F94" t="n">
-        <v>89405.24400000001</v>
+        <v>15402</v>
       </c>
       <c r="G94" t="n">
-        <v>16.43333333333333</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H94" t="n">
-        <v>16.41999999999999</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +4112,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C95" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D95" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E95" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="F95" t="n">
-        <v>141642</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="n">
-        <v>16.42666666666666</v>
+        <v>-466093.3064937886</v>
       </c>
       <c r="H95" t="n">
-        <v>16.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +4153,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C96" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D96" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E96" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F96" t="n">
-        <v>31257.3981</v>
+        <v>63535.0317</v>
       </c>
       <c r="G96" t="n">
-        <v>16.42</v>
+        <v>-466093.3064937886</v>
       </c>
       <c r="H96" t="n">
-        <v>16.42666666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +4194,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C97" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D97" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E97" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F97" t="n">
-        <v>34800</v>
+        <v>24782.8189</v>
       </c>
       <c r="G97" t="n">
-        <v>16.41333333333333</v>
+        <v>-490876.1253937886</v>
       </c>
       <c r="H97" t="n">
-        <v>16.42666666666666</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4237,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C98" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D98" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E98" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F98" t="n">
-        <v>22920.0199</v>
+        <v>122039.2383</v>
       </c>
       <c r="G98" t="n">
-        <v>16.4</v>
+        <v>-368836.8870937886</v>
       </c>
       <c r="H98" t="n">
-        <v>16.42666666666666</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4280,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C99" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D99" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E99" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10781.1224</v>
+        <v>90733.4811</v>
       </c>
       <c r="G99" t="n">
-        <v>16.38666666666666</v>
+        <v>-368836.8870937886</v>
       </c>
       <c r="H99" t="n">
-        <v>16.42666666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4321,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C100" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="D100" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E100" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F100" t="n">
-        <v>652.365</v>
+        <v>169678.6416</v>
       </c>
       <c r="G100" t="n">
-        <v>16.36666666666666</v>
+        <v>-538515.5286937886</v>
       </c>
       <c r="H100" t="n">
-        <v>16.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,24 +4374,27 @@
         <v>16.3</v>
       </c>
       <c r="F101" t="n">
-        <v>652.365</v>
+        <v>73455.2547</v>
       </c>
       <c r="G101" t="n">
-        <v>16.35333333333333</v>
+        <v>-538515.5286937886</v>
       </c>
       <c r="H101" t="n">
-        <v>16.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,24 +4415,27 @@
         <v>16.4</v>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>91477.52740000001</v>
       </c>
       <c r="G102" t="n">
-        <v>16.34666666666666</v>
+        <v>-447038.0012937885</v>
       </c>
       <c r="H102" t="n">
-        <v>16.42666666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,7 +4444,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C103" t="n">
         <v>16.5</v>
@@ -4645,27 +4453,30 @@
         <v>16.5</v>
       </c>
       <c r="E103" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F103" t="n">
-        <v>215231.5757575757</v>
+        <v>3030.303</v>
       </c>
       <c r="G103" t="n">
-        <v>16.34666666666666</v>
+        <v>-444007.6982937885</v>
       </c>
       <c r="H103" t="n">
-        <v>16.42833333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +4485,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C104" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D104" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E104" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F104" t="n">
-        <v>50237.346</v>
+        <v>45600</v>
       </c>
       <c r="G104" t="n">
-        <v>16.33999999999999</v>
+        <v>-444007.6982937885</v>
       </c>
       <c r="H104" t="n">
-        <v>16.42833333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +4526,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C105" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D105" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E105" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F105" t="n">
-        <v>304.8780487804878</v>
+        <v>24524.67</v>
       </c>
       <c r="G105" t="n">
-        <v>16.33333333333333</v>
+        <v>-444007.6982937885</v>
       </c>
       <c r="H105" t="n">
-        <v>16.42833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4759,27 +4576,30 @@
         <v>16.4</v>
       </c>
       <c r="E106" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F106" t="n">
-        <v>871.8616512195122</v>
+        <v>71600</v>
       </c>
       <c r="G106" t="n">
-        <v>16.33999999999999</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H106" t="n">
-        <v>16.42666666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +4608,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C107" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D107" t="n">
         <v>16.5</v>
       </c>
       <c r="E107" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F107" t="n">
-        <v>107600</v>
+        <v>8196.561</v>
       </c>
       <c r="G107" t="n">
-        <v>16.35333333333332</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H107" t="n">
-        <v>16.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,36 +4649,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C108" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D108" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E108" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F108" t="n">
-        <v>86724.9999</v>
+        <v>9000</v>
       </c>
       <c r="G108" t="n">
-        <v>16.36666666666666</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H108" t="n">
-        <v>16.42499999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,30 +4696,33 @@
         <v>16.4</v>
       </c>
       <c r="D109" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E109" t="n">
         <v>16.4</v>
       </c>
       <c r="F109" t="n">
-        <v>11800</v>
+        <v>63753.4804</v>
       </c>
       <c r="G109" t="n">
-        <v>16.37333333333332</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H109" t="n">
-        <v>16.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,24 +4743,27 @@
         <v>16.5</v>
       </c>
       <c r="F110" t="n">
-        <v>36115.9999</v>
+        <v>187089.8356</v>
       </c>
       <c r="G110" t="n">
-        <v>16.38666666666665</v>
+        <v>-328517.8626937885</v>
       </c>
       <c r="H110" t="n">
-        <v>16.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4943,33 +4775,36 @@
         <v>16.5</v>
       </c>
       <c r="C111" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D111" t="n">
         <v>16.5</v>
       </c>
       <c r="E111" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F111" t="n">
-        <v>75657.5866</v>
+        <v>50467.5454</v>
       </c>
       <c r="G111" t="n">
-        <v>16.39333333333332</v>
+        <v>-378985.4080937885</v>
       </c>
       <c r="H111" t="n">
-        <v>16.42333333333332</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,24 +4825,27 @@
         <v>16.5</v>
       </c>
       <c r="F112" t="n">
-        <v>30200</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="G112" t="n">
-        <v>16.40666666666665</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H112" t="n">
-        <v>16.42166666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,24 +4866,27 @@
         <v>16.5</v>
       </c>
       <c r="F113" t="n">
-        <v>20753.846</v>
+        <v>500</v>
       </c>
       <c r="G113" t="n">
-        <v>16.41999999999998</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H113" t="n">
-        <v>16.42166666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,24 +4907,27 @@
         <v>16.5</v>
       </c>
       <c r="F114" t="n">
-        <v>117596</v>
+        <v>618.2063181818182</v>
       </c>
       <c r="G114" t="n">
-        <v>16.43333333333332</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H114" t="n">
-        <v>16.41999999999999</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5101,27 +4945,30 @@
         <v>16.5</v>
       </c>
       <c r="E115" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F115" t="n">
-        <v>16800</v>
+        <v>108800</v>
       </c>
       <c r="G115" t="n">
-        <v>16.45333333333332</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H115" t="n">
-        <v>16.41999999999999</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,24 +4989,27 @@
         <v>16.5</v>
       </c>
       <c r="F116" t="n">
-        <v>179.0422</v>
+        <v>40200</v>
       </c>
       <c r="G116" t="n">
-        <v>16.46666666666665</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H116" t="n">
-        <v>16.42166666666666</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,36 +5018,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C117" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="D117" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="E117" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="F117" t="n">
-        <v>43979.7437</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="G117" t="n">
-        <v>16.48666666666665</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H117" t="n">
-        <v>16.42666666666666</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,36 +5061,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="C118" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="D118" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="E118" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="F118" t="n">
-        <v>41600</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="n">
-        <v>16.49999999999998</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H118" t="n">
-        <v>16.43166666666666</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,36 +5102,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="C119" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="D119" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="E119" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="F119" t="n">
-        <v>93591.2061</v>
+        <v>303.030303030303</v>
       </c>
       <c r="G119" t="n">
-        <v>16.51999999999998</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H119" t="n">
-        <v>16.43666666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,36 +5143,1234 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>131781.0122</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20964.2792</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>12417</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>89405.24400000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>141642</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>31257.3981</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-479327.2040119704</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34800</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>22920.0199</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10781.1224</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>652.365</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-514779.5690119704</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>652.365</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-513127.2040119704</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>215231.5757575757</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-297895.6282543947</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50237.346</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-348132.9742543947</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>304.8780487804878</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-348132.9742543947</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>871.8616512195122</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-348132.9742543947</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>107600</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-240532.9742543947</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>86724.9999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-240532.9742543947</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11800</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-252332.9742543947</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>36115.9999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>75657.5866</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>30200</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20753.846</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>117596</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16800</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>179.0422</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C146" t="n">
         <v>16.7</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D146" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E146" t="n">
         <v>16.6</v>
       </c>
-      <c r="D120" t="n">
+      <c r="F146" t="n">
+        <v>43979.7437</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-172237.2306543947</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
         <v>16.7</v>
       </c>
-      <c r="E120" t="n">
+      <c r="C147" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>41600</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-172237.2306543947</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1.051962025316456</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>93591.2061</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-172237.2306543947</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C149" t="n">
         <v>16.6</v>
       </c>
-      <c r="F120" t="n">
+      <c r="D149" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F149" t="n">
         <v>55019.2534</v>
       </c>
-      <c r="G120" t="n">
-        <v>16.53333333333331</v>
-      </c>
-      <c r="H120" t="n">
-        <v>16.43999999999999</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="G149" t="n">
+        <v>-227256.4840543947</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,19 +441,19 @@
         <v>15.9</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D2" t="n">
         <v>15.9</v>
       </c>
       <c r="E2" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F2" t="n">
-        <v>277863.4892</v>
+        <v>1403</v>
       </c>
       <c r="G2" t="n">
-        <v>-254604.7737937889</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,203 +467,241 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F3" t="n">
-        <v>310495.4227</v>
+        <v>22247.0731</v>
       </c>
       <c r="G3" t="n">
-        <v>-565100.1964937889</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>7767.1427</v>
+        <v>88400</v>
       </c>
       <c r="G4" t="n">
-        <v>-565100.1964937889</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>71375.1014</v>
+        <v>141800</v>
       </c>
       <c r="G5" t="n">
-        <v>-565100.1964937889</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>1519.1415</v>
+        <v>164506.8082</v>
       </c>
       <c r="G6" t="n">
-        <v>-563581.0549937888</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>16</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>191404.4058</v>
+        <v>49600</v>
       </c>
       <c r="G7" t="n">
-        <v>-754985.4607937888</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>24000</v>
+        <v>69.3091</v>
       </c>
       <c r="G8" t="n">
-        <v>-730985.4607937888</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,33 +710,40 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="E9" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F9" t="n">
-        <v>40648</v>
+        <v>72659.473</v>
       </c>
       <c r="G9" t="n">
-        <v>-730985.4607937888</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +757,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>8790.075999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-730985.4607937888</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +793,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>635540.9846</v>
+        <v>30395.4285</v>
       </c>
       <c r="G11" t="n">
-        <v>-1366526.445393789</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,168 +829,197 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D12" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E12" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F12" t="n">
-        <v>12291.5923</v>
+        <v>5769.23</v>
       </c>
       <c r="G12" t="n">
-        <v>-1366526.445393789</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D13" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E13" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1153.846</v>
+        <v>11439.5287</v>
       </c>
       <c r="G13" t="n">
-        <v>-1366526.445393789</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E14" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F14" t="n">
-        <v>173729.69</v>
+        <v>50192.2173</v>
       </c>
       <c r="G14" t="n">
-        <v>-1366526.445393789</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>20041.9154</v>
+        <v>24024</v>
       </c>
       <c r="G15" t="n">
-        <v>-1366526.445393789</v>
+        <v>-1011818.071693789</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>16.1</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D16" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E16" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F16" t="n">
-        <v>1075.8114</v>
+        <v>1804</v>
       </c>
       <c r="G16" t="n">
-        <v>-1366526.445393789</v>
+        <v>-1010014.071693789</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -947,47 +1028,54 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="K16" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>16.1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D17" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E17" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F17" t="n">
-        <v>79026.5408</v>
+        <v>6211.180124223602</v>
       </c>
       <c r="G17" t="n">
-        <v>-1366526.445393789</v>
+        <v>-1010014.071693789</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K17" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -997,69 +1085,73 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="D18" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="E18" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>37419.4052</v>
+        <v>143194.8199</v>
       </c>
       <c r="G18" t="n">
-        <v>-1366526.445393789</v>
+        <v>-866819.2517937885</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K18" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C19" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D19" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E19" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F19" t="n">
-        <v>10090.3004</v>
+        <v>144586.3975</v>
       </c>
       <c r="G19" t="n">
-        <v>-1366526.445393789</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1068,37 +1160,42 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="K19" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>16.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C20" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D20" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E20" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F20" t="n">
-        <v>46405.8494</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>-1366526.445393789</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1107,119 +1204,128 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="K20" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="C21" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="D21" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="E21" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="F21" t="n">
-        <v>14817.1772</v>
+        <v>6560.7948</v>
       </c>
       <c r="G21" t="n">
-        <v>-1351709.268193789</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D22" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E22" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F22" t="n">
-        <v>18002.9924</v>
+        <v>199.5</v>
       </c>
       <c r="G22" t="n">
-        <v>-1369712.260593789</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="C23" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="D23" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="E23" t="n">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
       <c r="F23" t="n">
-        <v>49191.9177</v>
+        <v>194076.4142</v>
       </c>
       <c r="G23" t="n">
-        <v>-1320520.342893789</v>
+        <v>-817329.2350937885</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1228,33 +1334,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D24" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E24" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="F24" t="n">
-        <v>3426.0128</v>
+        <v>188050.306</v>
       </c>
       <c r="G24" t="n">
-        <v>-1323946.355693789</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1263,33 +1376,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="C25" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D25" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E25" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="F25" t="n">
-        <v>53682.0883</v>
+        <v>30000</v>
       </c>
       <c r="G25" t="n">
-        <v>-1323946.355693789</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1298,33 +1418,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="C26" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D26" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E26" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="F26" t="n">
-        <v>3648.019</v>
+        <v>31400</v>
       </c>
       <c r="G26" t="n">
-        <v>-1323946.355693789</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1333,33 +1460,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D27" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E27" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="F27" t="n">
-        <v>69757.7934</v>
+        <v>5547.9109</v>
       </c>
       <c r="G27" t="n">
-        <v>-1323946.355693789</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1368,33 +1502,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D28" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E28" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="F28" t="n">
-        <v>399068.5075</v>
+        <v>94030.5165</v>
       </c>
       <c r="G28" t="n">
-        <v>-1323946.355693789</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1403,33 +1544,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D29" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E29" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="F29" t="n">
-        <v>275.7058</v>
+        <v>8151.0158</v>
       </c>
       <c r="G29" t="n">
-        <v>-1323946.355693789</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1438,33 +1586,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="C30" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="D30" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="E30" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="F30" t="n">
-        <v>36800</v>
+        <v>107023.7132</v>
       </c>
       <c r="G30" t="n">
-        <v>-1287146.355693789</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1473,72 +1628,82 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="C31" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="D31" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="E31" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="F31" t="n">
-        <v>105400</v>
+        <v>173.1707</v>
       </c>
       <c r="G31" t="n">
-        <v>-1287146.355693789</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
+        <v>16.1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="C32" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="D32" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="E32" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="F32" t="n">
-        <v>66633.60679999999</v>
+        <v>565.1055</v>
       </c>
       <c r="G32" t="n">
-        <v>-1287146.355693789</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1548,38 +1713,39 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C33" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="D33" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="E33" t="n">
-        <v>15.7</v>
+        <v>16.5</v>
       </c>
       <c r="F33" t="n">
-        <v>15062820.1368</v>
+        <v>140388.1212</v>
       </c>
       <c r="G33" t="n">
-        <v>-1287146.355693789</v>
+        <v>-381867.0946937885</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1589,38 +1755,39 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="C34" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="D34" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="E34" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="F34" t="n">
-        <v>6949277.9084</v>
+        <v>57400</v>
       </c>
       <c r="G34" t="n">
-        <v>-1287146.355693789</v>
+        <v>-324467.0946937885</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1630,7 +1797,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1640,28 +1807,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C35" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="D35" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="E35" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="F35" t="n">
-        <v>11383173.0156</v>
+        <v>99759.97500000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-1287146.355693789</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1671,7 +1839,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1681,28 +1849,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="D36" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="F36" t="n">
-        <v>11420539.4088</v>
+        <v>107700</v>
       </c>
       <c r="G36" t="n">
-        <v>-1287146.355693789</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1712,7 +1881,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1722,28 +1891,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="C37" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="D37" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="E37" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="F37" t="n">
-        <v>11442160.6224</v>
+        <v>129423.8762</v>
       </c>
       <c r="G37" t="n">
-        <v>-1287146.355693789</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1753,7 +1923,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1763,28 +1933,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C38" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="D38" t="n">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="E38" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="F38" t="n">
-        <v>6772441.7829</v>
+        <v>44000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1287146.355693789</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1794,7 +1965,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1804,28 +1975,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="C39" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="D39" t="n">
-        <v>15.9</v>
+        <v>16.6</v>
       </c>
       <c r="E39" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="F39" t="n">
-        <v>9003381.189999999</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-1287146.355693789</v>
+        <v>-424217.0696937885</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1835,7 +2007,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1845,28 +2017,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C40" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="D40" t="n">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="E40" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="F40" t="n">
-        <v>13798140.608</v>
+        <v>49140.4666</v>
       </c>
       <c r="G40" t="n">
-        <v>-1287146.355693789</v>
+        <v>-473357.5362937885</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1876,7 +2049,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1886,28 +2059,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C41" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="D41" t="n">
-        <v>15.9</v>
+        <v>16.6</v>
       </c>
       <c r="E41" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="F41" t="n">
-        <v>8410202.2871</v>
+        <v>148930.7168</v>
       </c>
       <c r="G41" t="n">
-        <v>-1287146.355693789</v>
+        <v>-324426.8194937885</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1917,7 +2091,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1927,28 +2101,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="C42" t="n">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="D42" t="n">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="E42" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="F42" t="n">
-        <v>205183.054</v>
+        <v>34445.1976</v>
       </c>
       <c r="G42" t="n">
-        <v>-1081963.301693788</v>
+        <v>-358872.0170937885</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1958,7 +2133,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1968,28 +2143,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="C43" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="D43" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="E43" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="F43" t="n">
-        <v>12868.4538</v>
+        <v>108221.2894</v>
       </c>
       <c r="G43" t="n">
-        <v>-1081963.301693788</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1999,7 +2175,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2009,28 +2185,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="C44" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="E44" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="F44" t="n">
-        <v>1403</v>
+        <v>69710.04059999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-1081963.301693788</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2040,7 +2217,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2050,28 +2227,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="C45" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="D45" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="E45" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="F45" t="n">
-        <v>22247.0731</v>
+        <v>57406.7043</v>
       </c>
       <c r="G45" t="n">
-        <v>-1081963.301693788</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2081,7 +2259,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2091,28 +2269,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="F46" t="n">
-        <v>88400</v>
+        <v>12201.1463</v>
       </c>
       <c r="G46" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2122,7 +2301,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2132,28 +2311,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="F47" t="n">
-        <v>141800</v>
+        <v>131972.1143</v>
       </c>
       <c r="G47" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2163,7 +2343,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2173,28 +2353,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="F48" t="n">
-        <v>164506.8082</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2204,7 +2385,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2214,28 +2395,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D49" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E49" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="F49" t="n">
-        <v>49600</v>
+        <v>191093.0711</v>
       </c>
       <c r="G49" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2245,7 +2427,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2255,28 +2437,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="F50" t="n">
-        <v>69.3091</v>
+        <v>42151.1041</v>
       </c>
       <c r="G50" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2286,7 +2469,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2296,28 +2479,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D51" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E51" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="F51" t="n">
-        <v>72659.473</v>
+        <v>27099.1448</v>
       </c>
       <c r="G51" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2327,7 +2511,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2337,28 +2521,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="F52" t="n">
-        <v>8790.075999999999</v>
+        <v>15402</v>
       </c>
       <c r="G52" t="n">
-        <v>-993563.3016937885</v>
+        <v>-467093.3064937886</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2368,7 +2553,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2378,28 +2563,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="F53" t="n">
-        <v>30395.4285</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>-993563.3016937885</v>
+        <v>-466093.3064937886</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2409,7 +2595,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2419,28 +2605,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="C54" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="D54" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="E54" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="F54" t="n">
-        <v>5769.23</v>
+        <v>63535.0317</v>
       </c>
       <c r="G54" t="n">
-        <v>-987794.0716937885</v>
+        <v>-466093.3064937886</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2450,7 +2637,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2460,28 +2647,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="C55" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="D55" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="E55" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="F55" t="n">
-        <v>11439.5287</v>
+        <v>24782.8189</v>
       </c>
       <c r="G55" t="n">
-        <v>-987794.0716937885</v>
+        <v>-490876.1253937886</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2491,7 +2679,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2501,28 +2689,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="C56" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="D56" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="E56" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="F56" t="n">
-        <v>50192.2173</v>
+        <v>122039.2383</v>
       </c>
       <c r="G56" t="n">
-        <v>-987794.0716937885</v>
+        <v>-368836.8870937886</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2532,7 +2721,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2542,28 +2731,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="E57" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="F57" t="n">
-        <v>24024</v>
+        <v>90733.4811</v>
       </c>
       <c r="G57" t="n">
-        <v>-1011818.071693789</v>
+        <v>-368836.8870937886</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2573,7 +2763,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2583,40 +2773,39 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="C58" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="D58" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="E58" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1804</v>
+        <v>169678.6416</v>
       </c>
       <c r="G58" t="n">
-        <v>-1010014.071693789</v>
+        <v>-538515.5286937886</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>16</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2626,40 +2815,39 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="C59" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="D59" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="E59" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="F59" t="n">
-        <v>6211.180124223602</v>
+        <v>73455.2547</v>
       </c>
       <c r="G59" t="n">
-        <v>-1010014.071693789</v>
+        <v>-538515.5286937886</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>16.1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2669,28 +2857,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="C60" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D60" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="F60" t="n">
-        <v>143194.8199</v>
+        <v>91477.52740000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-866819.2517937885</v>
+        <v>-447038.0012937885</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2700,7 +2889,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2710,28 +2899,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="C61" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="D61" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="E61" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="F61" t="n">
-        <v>144586.3975</v>
+        <v>3030.303</v>
       </c>
       <c r="G61" t="n">
-        <v>-1011405.649293788</v>
+        <v>-444007.6982937885</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2741,7 +2931,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2751,28 +2941,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="C62" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="D62" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>45600</v>
       </c>
       <c r="G62" t="n">
-        <v>-1011405.649293788</v>
+        <v>-444007.6982937885</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2782,7 +2973,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2792,28 +2983,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="C63" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="D63" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="E63" t="n">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="F63" t="n">
-        <v>6560.7948</v>
+        <v>24524.67</v>
       </c>
       <c r="G63" t="n">
-        <v>-1011405.649293788</v>
+        <v>-444007.6982937885</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2823,7 +3015,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2833,40 +3025,39 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="C64" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="D64" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="E64" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="F64" t="n">
-        <v>199.5</v>
+        <v>71600</v>
       </c>
       <c r="G64" t="n">
-        <v>-1011405.649293788</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>16.1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2876,28 +3067,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C65" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D65" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="E65" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F65" t="n">
-        <v>194076.4142</v>
+        <v>8196.561</v>
       </c>
       <c r="G65" t="n">
-        <v>-817329.2350937885</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2907,7 +3099,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2917,28 +3109,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C66" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D66" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E66" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F66" t="n">
-        <v>188050.306</v>
+        <v>9000</v>
       </c>
       <c r="G66" t="n">
-        <v>-629278.9290937885</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2948,7 +3141,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2958,28 +3151,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C67" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D67" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E67" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>63753.4804</v>
       </c>
       <c r="G67" t="n">
-        <v>-629278.9290937885</v>
+        <v>-515607.6982937885</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2989,7 +3183,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2999,28 +3193,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C68" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D68" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E68" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F68" t="n">
-        <v>31400</v>
+        <v>187089.8356</v>
       </c>
       <c r="G68" t="n">
-        <v>-629278.9290937885</v>
+        <v>-328517.8626937885</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3030,7 +3225,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3040,28 +3235,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="C69" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D69" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E69" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F69" t="n">
-        <v>5547.9109</v>
+        <v>50467.5454</v>
       </c>
       <c r="G69" t="n">
-        <v>-629278.9290937885</v>
+        <v>-378985.4080937885</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3071,7 +3267,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3081,28 +3277,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C70" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D70" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E70" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F70" t="n">
-        <v>94030.5165</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="G70" t="n">
-        <v>-629278.9290937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3112,7 +3309,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3122,28 +3319,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C71" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D71" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E71" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F71" t="n">
-        <v>8151.0158</v>
+        <v>500</v>
       </c>
       <c r="G71" t="n">
-        <v>-629278.9290937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3153,7 +3351,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3163,28 +3361,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C72" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D72" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E72" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F72" t="n">
-        <v>107023.7132</v>
+        <v>618.2063181818182</v>
       </c>
       <c r="G72" t="n">
-        <v>-522255.2158937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3194,7 +3393,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3204,28 +3403,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C73" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D73" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E73" t="n">
         <v>16.4</v>
       </c>
       <c r="F73" t="n">
-        <v>173.1707</v>
+        <v>108800</v>
       </c>
       <c r="G73" t="n">
-        <v>-522255.2158937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3235,7 +3435,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3245,28 +3445,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C74" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D74" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E74" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F74" t="n">
-        <v>565.1055</v>
+        <v>40200</v>
       </c>
       <c r="G74" t="n">
-        <v>-522255.2158937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3276,7 +3477,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3286,6 +3487,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3304,10 +3506,10 @@
         <v>16.5</v>
       </c>
       <c r="F75" t="n">
-        <v>140388.1212</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="G75" t="n">
-        <v>-381867.0946937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3317,7 +3519,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3327,28 +3529,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C76" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D76" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E76" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="F76" t="n">
-        <v>57400</v>
+        <v>6000</v>
       </c>
       <c r="G76" t="n">
-        <v>-324467.0946937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3358,7 +3561,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3368,6 +3571,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3386,10 +3590,10 @@
         <v>16.5</v>
       </c>
       <c r="F77" t="n">
-        <v>99759.97500000001</v>
+        <v>303.030303030303</v>
       </c>
       <c r="G77" t="n">
-        <v>-424227.0696937885</v>
+        <v>-378803.5899119704</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3399,7 +3603,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3409,28 +3613,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C78" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D78" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E78" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F78" t="n">
-        <v>107700</v>
+        <v>131781.0122</v>
       </c>
       <c r="G78" t="n">
-        <v>-424227.0696937885</v>
+        <v>-510584.6021119704</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3440,7 +3645,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3450,28 +3655,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C79" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D79" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E79" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F79" t="n">
-        <v>129423.8762</v>
+        <v>20964.2792</v>
       </c>
       <c r="G79" t="n">
-        <v>-424227.0696937885</v>
+        <v>-510584.6021119704</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3481,7 +3687,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3491,28 +3697,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C80" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D80" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E80" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F80" t="n">
-        <v>44000</v>
+        <v>12417</v>
       </c>
       <c r="G80" t="n">
-        <v>-424227.0696937885</v>
+        <v>-510584.6021119704</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3522,7 +3729,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3532,28 +3739,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="C81" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="D81" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="E81" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>89405.24400000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-424217.0696937885</v>
+        <v>-510584.6021119704</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3563,7 +3771,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3573,28 +3781,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C82" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D82" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E82" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F82" t="n">
-        <v>49140.4666</v>
+        <v>141642</v>
       </c>
       <c r="G82" t="n">
-        <v>-473357.5362937885</v>
+        <v>-510584.6021119704</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3604,7 +3813,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3614,28 +3823,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C83" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="D83" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="E83" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F83" t="n">
-        <v>148930.7168</v>
+        <v>31257.3981</v>
       </c>
       <c r="G83" t="n">
-        <v>-324426.8194937885</v>
+        <v>-479327.2040119704</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3645,7 +3855,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3655,28 +3865,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C84" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D84" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E84" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F84" t="n">
-        <v>34445.1976</v>
+        <v>34800</v>
       </c>
       <c r="G84" t="n">
-        <v>-358872.0170937885</v>
+        <v>-514127.2040119704</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3686,7 +3897,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3696,28 +3907,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C85" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D85" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E85" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F85" t="n">
-        <v>108221.2894</v>
+        <v>22920.0199</v>
       </c>
       <c r="G85" t="n">
-        <v>-467093.3064937886</v>
+        <v>-514127.2040119704</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3727,7 +3939,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3737,28 +3949,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C86" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D86" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E86" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F86" t="n">
-        <v>69710.04059999999</v>
+        <v>10781.1224</v>
       </c>
       <c r="G86" t="n">
-        <v>-467093.3064937886</v>
+        <v>-514127.2040119704</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3768,7 +3981,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3778,28 +3991,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="C87" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="D87" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="E87" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="F87" t="n">
-        <v>57406.7043</v>
+        <v>652.365</v>
       </c>
       <c r="G87" t="n">
-        <v>-467093.3064937886</v>
+        <v>-514779.5690119704</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3809,7 +4023,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3819,28 +4033,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C88" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D88" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E88" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F88" t="n">
-        <v>12201.1463</v>
+        <v>652.365</v>
       </c>
       <c r="G88" t="n">
-        <v>-467093.3064937886</v>
+        <v>-514127.2040119704</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3850,7 +4065,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3860,13 +4075,14 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C89" t="n">
         <v>16.4</v>
@@ -3875,13 +4091,13 @@
         <v>16.4</v>
       </c>
       <c r="E89" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F89" t="n">
-        <v>131972.1143</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>-467093.3064937886</v>
+        <v>-513127.2040119704</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3891,7 +4107,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3901,6 +4117,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3910,19 +4127,19 @@
         <v>16.4</v>
       </c>
       <c r="C90" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D90" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E90" t="n">
         <v>16.4</v>
       </c>
       <c r="F90" t="n">
-        <v>2500</v>
+        <v>215231.5757575757</v>
       </c>
       <c r="G90" t="n">
-        <v>-467093.3064937886</v>
+        <v>-297895.6282543947</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3932,7 +4149,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3942,6 +4159,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3960,10 +4178,10 @@
         <v>16.4</v>
       </c>
       <c r="F91" t="n">
-        <v>191093.0711</v>
+        <v>50237.346</v>
       </c>
       <c r="G91" t="n">
-        <v>-467093.3064937886</v>
+        <v>-348132.9742543947</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3973,7 +4191,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3983,6 +4201,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4001,10 +4220,10 @@
         <v>16.4</v>
       </c>
       <c r="F92" t="n">
-        <v>42151.1041</v>
+        <v>304.8780487804878</v>
       </c>
       <c r="G92" t="n">
-        <v>-467093.3064937886</v>
+        <v>-348132.9742543947</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4014,7 +4233,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4024,6 +4243,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4042,10 +4262,10 @@
         <v>16.4</v>
       </c>
       <c r="F93" t="n">
-        <v>27099.1448</v>
+        <v>871.8616512195122</v>
       </c>
       <c r="G93" t="n">
-        <v>-467093.3064937886</v>
+        <v>-348132.9742543947</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4055,7 +4275,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4065,28 +4285,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C94" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D94" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E94" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F94" t="n">
-        <v>15402</v>
+        <v>107600</v>
       </c>
       <c r="G94" t="n">
-        <v>-467093.3064937886</v>
+        <v>-240532.9742543947</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4096,7 +4317,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4106,6 +4327,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4124,113 +4346,102 @@
         <v>16.5</v>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>86724.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>-466093.3064937886</v>
+        <v>-240532.9742543947</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
-      </c>
+        <v>1.019844720496894</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C96" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D96" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E96" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F96" t="n">
-        <v>63535.0317</v>
+        <v>11800</v>
       </c>
       <c r="G96" t="n">
-        <v>-466093.3064937886</v>
+        <v>-252332.9742543947</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C97" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D97" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E97" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F97" t="n">
-        <v>24782.8189</v>
+        <v>36115.9999</v>
       </c>
       <c r="G97" t="n">
-        <v>-490876.1253937886</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4249,31 +4460,24 @@
         <v>16.5</v>
       </c>
       <c r="F98" t="n">
-        <v>122039.2383</v>
+        <v>75657.5866</v>
       </c>
       <c r="G98" t="n">
-        <v>-368836.8870937886</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K98" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4292,152 +4496,132 @@
         <v>16.5</v>
       </c>
       <c r="F99" t="n">
-        <v>90733.4811</v>
+        <v>30200</v>
       </c>
       <c r="G99" t="n">
-        <v>-368836.8870937886</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C100" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D100" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E100" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F100" t="n">
-        <v>169678.6416</v>
+        <v>20753.846</v>
       </c>
       <c r="G100" t="n">
-        <v>-538515.5286937886</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="C101" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D101" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E101" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F101" t="n">
-        <v>73455.2547</v>
+        <v>117596</v>
       </c>
       <c r="G101" t="n">
-        <v>-538515.5286937886</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="C102" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D102" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E102" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="F102" t="n">
-        <v>91477.52740000001</v>
+        <v>16800</v>
       </c>
       <c r="G102" t="n">
-        <v>-447038.0012937885</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4456,1923 +4640,168 @@
         <v>16.5</v>
       </c>
       <c r="F103" t="n">
-        <v>3030.303</v>
+        <v>179.0422</v>
       </c>
       <c r="G103" t="n">
-        <v>-444007.6982937885</v>
+        <v>-216216.9743543947</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="C104" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="D104" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="E104" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="F104" t="n">
-        <v>45600</v>
+        <v>43979.7437</v>
       </c>
       <c r="G104" t="n">
-        <v>-444007.6982937885</v>
+        <v>-172237.2306543947</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="C105" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="D105" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="E105" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="F105" t="n">
-        <v>24524.67</v>
+        <v>41600</v>
       </c>
       <c r="G105" t="n">
-        <v>-444007.6982937885</v>
+        <v>-172237.2306543947</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="C106" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="D106" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="E106" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="F106" t="n">
-        <v>71600</v>
+        <v>93591.2061</v>
       </c>
       <c r="G106" t="n">
-        <v>-515607.6982937885</v>
+        <v>-172237.2306543947</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="C107" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="D107" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="E107" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="F107" t="n">
-        <v>8196.561</v>
+        <v>55019.2534</v>
       </c>
       <c r="G107" t="n">
-        <v>-515607.6982937885</v>
+        <v>-227256.4840543947</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C108" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E108" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-515607.6982937885</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D109" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F109" t="n">
-        <v>63753.4804</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-515607.6982937885</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>187089.8356</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-328517.8626937885</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D111" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F111" t="n">
-        <v>50467.5454</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-378985.4080937885</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C112" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E112" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F112" t="n">
-        <v>181.8181818181818</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>500</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>618.2063181818182</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>108800</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>40200</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>60.60606060606061</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K117" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>303.030303030303</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>131781.0122</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>20964.2792</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C122" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E122" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>12417</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K122" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>89405.24400000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>141642</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>31257.3981</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-479327.2040119704</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>34800</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>22920.0199</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10781.1224</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K128" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C129" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>652.365</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-514779.5690119704</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>652.365</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D131" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-513127.2040119704</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C132" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F132" t="n">
-        <v>215231.5757575757</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-297895.6282543947</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K132" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C133" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D133" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E133" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>50237.346</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-348132.9742543947</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K133" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C134" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>304.8780487804878</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-348132.9742543947</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>871.8616512195122</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-348132.9742543947</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>107600</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-240532.9742543947</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>86724.9999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-240532.9742543947</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C138" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D138" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E138" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>11800</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-252332.9742543947</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C139" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>36115.9999</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C140" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D140" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E140" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F140" t="n">
-        <v>75657.5866</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>30200</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C142" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>20753.846</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>117596</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E144" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>16800</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>179.0422</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>43979.7437</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-172237.2306543947</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C147" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>41600</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-172237.2306543947</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.051962025316456</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>93591.2061</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-172237.2306543947</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F149" t="n">
-        <v>55019.2534</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-227256.4840543947</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>1403</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="n">
-        <v>-1081963.301693788</v>
+        <v>90144.71739999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="E3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>22247.0731</v>
+        <v>27310.55900621118</v>
       </c>
       <c r="G3" t="n">
-        <v>-1081963.301693788</v>
+        <v>117455.2764062112</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.9</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F4" t="n">
-        <v>88400</v>
+        <v>310.5590062111801</v>
       </c>
       <c r="G4" t="n">
-        <v>-993563.3016937885</v>
+        <v>117455.2764062112</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F5" t="n">
-        <v>141800</v>
+        <v>131.2422</v>
       </c>
       <c r="G5" t="n">
-        <v>-993563.3016937885</v>
+        <v>117455.2764062112</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>16</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F6" t="n">
-        <v>164506.8082</v>
+        <v>143.913</v>
       </c>
       <c r="G6" t="n">
-        <v>-993563.3016937885</v>
+        <v>117455.2764062112</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>16</v>
-      </c>
-      <c r="K6" t="n">
-        <v>16</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -654,28 +630,20 @@
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>49600</v>
+        <v>281.25</v>
       </c>
       <c r="G7" t="n">
-        <v>-993563.3016937885</v>
+        <v>117174.0264062112</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>16</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -698,10 +666,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>69.3091</v>
+        <v>24868.42</v>
       </c>
       <c r="G8" t="n">
-        <v>-993563.3016937885</v>
+        <v>117174.0264062112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -710,14 +678,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>16</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -728,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D9" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="E9" t="n">
         <v>15.9</v>
       </c>
       <c r="F9" t="n">
-        <v>72659.473</v>
+        <v>266</v>
       </c>
       <c r="G9" t="n">
-        <v>-993563.3016937885</v>
+        <v>116908.0264062112</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -764,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C10" t="n">
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>8790.075999999999</v>
+        <v>20207</v>
       </c>
       <c r="G10" t="n">
-        <v>-993563.3016937885</v>
+        <v>137115.0264062112</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -803,19 +765,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D11" t="n">
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F11" t="n">
-        <v>30395.4285</v>
+        <v>106620.013</v>
       </c>
       <c r="G11" t="n">
-        <v>-993563.3016937885</v>
+        <v>30495.01340621116</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -848,23 +810,19 @@
         <v>16.1</v>
       </c>
       <c r="F12" t="n">
-        <v>5769.23</v>
+        <v>1579.2329</v>
       </c>
       <c r="G12" t="n">
-        <v>-987794.0716937885</v>
+        <v>32074.24630621116</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>16</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -876,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D13" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E13" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F13" t="n">
-        <v>11439.5287</v>
+        <v>19280.0641</v>
       </c>
       <c r="G13" t="n">
-        <v>-987794.0716937885</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>16</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -920,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C14" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D14" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E14" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F14" t="n">
-        <v>50192.2173</v>
+        <v>17653.7499</v>
       </c>
       <c r="G14" t="n">
-        <v>-987794.0716937885</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>16</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -964,35 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F15" t="n">
-        <v>24024</v>
+        <v>3281.6007</v>
       </c>
       <c r="G15" t="n">
-        <v>-1011818.071693789</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>16.1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -1007,37 +945,29 @@
         <v>16.1</v>
       </c>
       <c r="C16" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D16" t="n">
         <v>16.1</v>
       </c>
       <c r="E16" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1804</v>
+        <v>365438</v>
       </c>
       <c r="G16" t="n">
-        <v>-1010014.071693789</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>16</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1048,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C17" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D17" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E17" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F17" t="n">
-        <v>6211.180124223602</v>
+        <v>43401.1429</v>
       </c>
       <c r="G17" t="n">
-        <v>-1010014.071693789</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1092,40 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C18" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="D18" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F18" t="n">
-        <v>143194.8199</v>
+        <v>51433.4015</v>
       </c>
       <c r="G18" t="n">
-        <v>-866819.2517937885</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1136,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C19" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D19" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F19" t="n">
-        <v>144586.3975</v>
+        <v>3129.5003</v>
       </c>
       <c r="G19" t="n">
-        <v>-1011405.649293788</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1180,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C20" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D20" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E20" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>24885.2895</v>
       </c>
       <c r="G20" t="n">
-        <v>-1011405.649293788</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1224,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C21" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D21" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E21" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F21" t="n">
-        <v>6560.7948</v>
+        <v>29896.2525</v>
       </c>
       <c r="G21" t="n">
-        <v>-1011405.649293788</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1248,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1266,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C22" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D22" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E22" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5</v>
+        <v>63115.283</v>
       </c>
       <c r="G22" t="n">
-        <v>-1011405.649293788</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1310,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="C23" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="D23" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="E23" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="F23" t="n">
-        <v>194076.4142</v>
+        <v>105</v>
       </c>
       <c r="G23" t="n">
-        <v>-817329.2350937885</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1334,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1352,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="C24" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="D24" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E24" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="F24" t="n">
-        <v>188050.306</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>-629278.9290937885</v>
+        <v>12794.18220621116</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1376,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C25" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D25" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="E25" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>738.8315</v>
       </c>
       <c r="G25" t="n">
-        <v>-629278.9290937885</v>
+        <v>12055.35070621116</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1418,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C26" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D26" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="E26" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F26" t="n">
-        <v>31400</v>
+        <v>54644.5881</v>
       </c>
       <c r="G26" t="n">
-        <v>-629278.9290937885</v>
+        <v>12055.35070621116</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1460,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1478,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="C27" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D27" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="E27" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="F27" t="n">
-        <v>5547.9109</v>
+        <v>24472.547</v>
       </c>
       <c r="G27" t="n">
-        <v>-629278.9290937885</v>
+        <v>12055.35070621116</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1502,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1520,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="C28" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="D28" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E28" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="F28" t="n">
-        <v>94030.5165</v>
+        <v>11203.3647</v>
       </c>
       <c r="G28" t="n">
-        <v>-629278.9290937885</v>
+        <v>23258.71540621116</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1544,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1562,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C29" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="D29" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="E29" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F29" t="n">
-        <v>8151.0158</v>
+        <v>7440</v>
       </c>
       <c r="G29" t="n">
-        <v>-629278.9290937885</v>
+        <v>23258.71540621116</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1586,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="C30" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="D30" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="E30" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="F30" t="n">
-        <v>107023.7132</v>
+        <v>56376.1978</v>
       </c>
       <c r="G30" t="n">
-        <v>-522255.2158937885</v>
+        <v>23258.71540621116</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1628,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1646,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="C31" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D31" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="E31" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F31" t="n">
-        <v>173.1707</v>
+        <v>277863.4892</v>
       </c>
       <c r="G31" t="n">
-        <v>-522255.2158937885</v>
+        <v>-254604.7737937889</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1670,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1688,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C32" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D32" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="E32" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F32" t="n">
-        <v>565.1055</v>
+        <v>310495.4227</v>
       </c>
       <c r="G32" t="n">
-        <v>-522255.2158937885</v>
+        <v>-565100.1964937889</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1712,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1730,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C33" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D33" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E33" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F33" t="n">
-        <v>140388.1212</v>
+        <v>7767.1427</v>
       </c>
       <c r="G33" t="n">
-        <v>-381867.0946937885</v>
+        <v>-565100.1964937889</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1754,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1772,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
       <c r="C34" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
       <c r="D34" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
       <c r="E34" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
       <c r="F34" t="n">
-        <v>57400</v>
+        <v>71375.1014</v>
       </c>
       <c r="G34" t="n">
-        <v>-324467.0946937885</v>
+        <v>-565100.1964937889</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1796,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1814,38 +1626,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="C35" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="D35" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="F35" t="n">
-        <v>99759.97500000001</v>
+        <v>1519.1415</v>
       </c>
       <c r="G35" t="n">
-        <v>-424227.0696937885</v>
+        <v>-563581.0549937888</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K35" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1856,22 +1666,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C36" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D36" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E36" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F36" t="n">
-        <v>107700</v>
+        <v>191404.4058</v>
       </c>
       <c r="G36" t="n">
-        <v>-424227.0696937885</v>
+        <v>-754985.4607937888</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1881,11 +1691,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1898,22 +1708,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C37" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D37" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="E37" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>129423.8762</v>
+        <v>24000</v>
       </c>
       <c r="G37" t="n">
-        <v>-424227.0696937885</v>
+        <v>-730985.4607937888</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1923,11 +1733,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1940,22 +1750,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C38" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D38" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="E38" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="F38" t="n">
-        <v>44000</v>
+        <v>40648</v>
       </c>
       <c r="G38" t="n">
-        <v>-424227.0696937885</v>
+        <v>-730985.4607937888</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1964,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1982,22 +1786,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="C39" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="D39" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="E39" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>15000</v>
       </c>
       <c r="G39" t="n">
-        <v>-424217.0696937885</v>
+        <v>-730985.4607937888</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2006,14 +1810,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +1822,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C40" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D40" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E40" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F40" t="n">
-        <v>49140.4666</v>
+        <v>635540.9846</v>
       </c>
       <c r="G40" t="n">
-        <v>-473357.5362937885</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2048,14 +1846,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2066,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C41" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
       <c r="D41" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
       <c r="E41" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F41" t="n">
-        <v>148930.7168</v>
+        <v>12291.5923</v>
       </c>
       <c r="G41" t="n">
-        <v>-324426.8194937885</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2090,14 +1882,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C42" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D42" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E42" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F42" t="n">
-        <v>34445.1976</v>
+        <v>1153.846</v>
       </c>
       <c r="G42" t="n">
-        <v>-358872.0170937885</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2132,14 +1918,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +1930,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C43" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D43" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E43" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F43" t="n">
-        <v>108221.2894</v>
+        <v>173729.69</v>
       </c>
       <c r="G43" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2174,14 +1954,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2192,38 +1966,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C44" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D44" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E44" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F44" t="n">
-        <v>69710.04059999999</v>
+        <v>20041.9154</v>
       </c>
       <c r="G44" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K44" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2234,36 +2006,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C45" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D45" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E45" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F45" t="n">
-        <v>57406.7043</v>
+        <v>1075.8114</v>
       </c>
       <c r="G45" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K45" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2276,36 +2050,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C46" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D46" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E46" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F46" t="n">
-        <v>12201.1463</v>
+        <v>79026.5408</v>
       </c>
       <c r="G46" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K46" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2318,38 +2094,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="C47" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D47" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E47" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="F47" t="n">
-        <v>131972.1143</v>
+        <v>37419.4052</v>
       </c>
       <c r="G47" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K47" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2360,36 +2134,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C48" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D48" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E48" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>10090.3004</v>
       </c>
       <c r="G48" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K48" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2402,36 +2178,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C49" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D49" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E49" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F49" t="n">
-        <v>191093.0711</v>
+        <v>46405.8494</v>
       </c>
       <c r="G49" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1366526.445393789</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K49" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2444,38 +2222,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C50" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D50" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F50" t="n">
-        <v>42151.1041</v>
+        <v>14817.1772</v>
       </c>
       <c r="G50" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1351709.268193789</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K50" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2486,36 +2262,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C51" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D51" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E51" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F51" t="n">
-        <v>27099.1448</v>
+        <v>18002.9924</v>
       </c>
       <c r="G51" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1369712.260593789</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K51" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2528,36 +2306,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C52" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D52" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="E52" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F52" t="n">
-        <v>15402</v>
+        <v>49191.9177</v>
       </c>
       <c r="G52" t="n">
-        <v>-467093.3064937886</v>
+        <v>-1320520.342893789</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K52" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2570,38 +2350,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C53" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D53" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E53" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>3426.0128</v>
       </c>
       <c r="G53" t="n">
-        <v>-466093.3064937886</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K53" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.8</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2612,36 +2390,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C54" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D54" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E54" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F54" t="n">
-        <v>63535.0317</v>
+        <v>53682.0883</v>
       </c>
       <c r="G54" t="n">
-        <v>-466093.3064937886</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K54" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2654,36 +2434,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C55" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="D55" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E55" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="F55" t="n">
-        <v>24782.8189</v>
+        <v>3648.019</v>
       </c>
       <c r="G55" t="n">
-        <v>-490876.1253937886</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K55" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2696,38 +2478,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C56" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D56" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E56" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F56" t="n">
-        <v>122039.2383</v>
+        <v>69757.7934</v>
       </c>
       <c r="G56" t="n">
-        <v>-368836.8870937886</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K56" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2738,36 +2518,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="C57" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="D57" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F57" t="n">
-        <v>90733.4811</v>
+        <v>399068.5075</v>
       </c>
       <c r="G57" t="n">
-        <v>-368836.8870937886</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K57" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2780,36 +2562,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="C58" t="n">
-        <v>16.3</v>
+        <v>15.7</v>
       </c>
       <c r="D58" t="n">
-        <v>16.4</v>
+        <v>15.7</v>
       </c>
       <c r="E58" t="n">
-        <v>16.3</v>
+        <v>15.7</v>
       </c>
       <c r="F58" t="n">
-        <v>169678.6416</v>
+        <v>275.7058</v>
       </c>
       <c r="G58" t="n">
-        <v>-538515.5286937886</v>
+        <v>-1323946.355693789</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K58" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2822,38 +2606,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="C59" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="D59" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="E59" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F59" t="n">
-        <v>73455.2547</v>
+        <v>36800</v>
       </c>
       <c r="G59" t="n">
-        <v>-538515.5286937886</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K59" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2864,36 +2646,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C60" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D60" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="E60" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F60" t="n">
-        <v>91477.52740000001</v>
+        <v>105400</v>
       </c>
       <c r="G60" t="n">
-        <v>-447038.0012937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K60" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2906,36 +2690,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C61" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D61" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="E61" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="F61" t="n">
-        <v>3030.303</v>
+        <v>66633.60679999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-444007.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K61" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2948,36 +2734,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C62" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D62" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="E62" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="F62" t="n">
-        <v>45600</v>
+        <v>15062820.1368</v>
       </c>
       <c r="G62" t="n">
-        <v>-444007.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K62" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2990,22 +2778,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C63" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D63" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="E63" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="F63" t="n">
-        <v>24524.67</v>
+        <v>6949277.9084</v>
       </c>
       <c r="G63" t="n">
-        <v>-444007.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3015,7 +2803,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3032,22 +2820,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C64" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D64" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="E64" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="F64" t="n">
-        <v>71600</v>
+        <v>11383173.0156</v>
       </c>
       <c r="G64" t="n">
-        <v>-515607.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3057,7 +2845,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3074,22 +2862,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C65" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D65" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="E65" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F65" t="n">
-        <v>8196.561</v>
+        <v>11420539.4088</v>
       </c>
       <c r="G65" t="n">
-        <v>-515607.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3099,7 +2887,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3116,22 +2904,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C66" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D66" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="E66" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F66" t="n">
-        <v>9000</v>
+        <v>11442160.6224</v>
       </c>
       <c r="G66" t="n">
-        <v>-515607.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3141,7 +2929,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3158,22 +2946,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="C67" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D67" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E67" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F67" t="n">
-        <v>63753.4804</v>
+        <v>6772441.7829</v>
       </c>
       <c r="G67" t="n">
-        <v>-515607.6982937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3183,7 +2971,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3200,22 +2988,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C68" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D68" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E68" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="F68" t="n">
-        <v>187089.8356</v>
+        <v>9003381.189999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-328517.8626937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3225,7 +3013,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3242,22 +3030,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C69" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D69" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E69" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="F69" t="n">
-        <v>50467.5454</v>
+        <v>13798140.608</v>
       </c>
       <c r="G69" t="n">
-        <v>-378985.4080937885</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3267,7 +3055,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3284,22 +3072,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C70" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="D70" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E70" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="F70" t="n">
-        <v>181.8181818181818</v>
+        <v>8410202.2871</v>
       </c>
       <c r="G70" t="n">
-        <v>-378803.5899119704</v>
+        <v>-1287146.355693789</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3309,7 +3097,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3326,22 +3114,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="C71" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="D71" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E71" t="n">
-        <v>16.5</v>
+        <v>15.8</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>205183.054</v>
       </c>
       <c r="G71" t="n">
-        <v>-378803.5899119704</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3351,7 +3139,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3368,22 +3156,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="C72" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="D72" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E72" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="F72" t="n">
-        <v>618.2063181818182</v>
+        <v>12868.4538</v>
       </c>
       <c r="G72" t="n">
-        <v>-378803.5899119704</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3393,7 +3181,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3410,22 +3198,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="C73" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="D73" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E73" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="F73" t="n">
-        <v>108800</v>
+        <v>1403</v>
       </c>
       <c r="G73" t="n">
-        <v>-378803.5899119704</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3435,7 +3223,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3452,22 +3240,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="C74" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="D74" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="E74" t="n">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="F74" t="n">
-        <v>40200</v>
+        <v>22247.0731</v>
       </c>
       <c r="G74" t="n">
-        <v>-378803.5899119704</v>
+        <v>-1081963.301693788</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3477,7 +3265,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3494,22 +3282,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>60.60606060606061</v>
+        <v>88400</v>
       </c>
       <c r="G75" t="n">
-        <v>-378803.5899119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3519,7 +3307,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3536,22 +3324,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
-        <v>6000</v>
+        <v>141800</v>
       </c>
       <c r="G76" t="n">
-        <v>-378803.5899119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3561,7 +3349,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3578,22 +3366,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="E77" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F77" t="n">
-        <v>303.030303030303</v>
+        <v>164506.8082</v>
       </c>
       <c r="G77" t="n">
-        <v>-378803.5899119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3603,7 +3391,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3620,22 +3408,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="F78" t="n">
-        <v>131781.0122</v>
+        <v>49600</v>
       </c>
       <c r="G78" t="n">
-        <v>-510584.6021119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3645,7 +3433,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3662,22 +3450,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="C79" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D79" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="F79" t="n">
-        <v>20964.2792</v>
+        <v>69.3091</v>
       </c>
       <c r="G79" t="n">
-        <v>-510584.6021119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3687,7 +3475,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3704,22 +3492,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="E80" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="F80" t="n">
-        <v>12417</v>
+        <v>72659.473</v>
       </c>
       <c r="G80" t="n">
-        <v>-510584.6021119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3729,7 +3517,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3746,22 +3534,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="C81" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>89405.24400000001</v>
+        <v>8790.075999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-510584.6021119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3771,7 +3559,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3788,22 +3576,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="F82" t="n">
-        <v>141642</v>
+        <v>30395.4285</v>
       </c>
       <c r="G82" t="n">
-        <v>-510584.6021119704</v>
+        <v>-993563.3016937885</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3813,7 +3601,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3830,22 +3618,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C83" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D83" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E83" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F83" t="n">
-        <v>31257.3981</v>
+        <v>5769.23</v>
       </c>
       <c r="G83" t="n">
-        <v>-479327.2040119704</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3855,7 +3643,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3872,22 +3660,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="C84" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="D84" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="E84" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="F84" t="n">
-        <v>34800</v>
+        <v>11439.5287</v>
       </c>
       <c r="G84" t="n">
-        <v>-514127.2040119704</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3897,7 +3685,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3914,22 +3702,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="C85" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="D85" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="E85" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="F85" t="n">
-        <v>22920.0199</v>
+        <v>50192.2173</v>
       </c>
       <c r="G85" t="n">
-        <v>-514127.2040119704</v>
+        <v>-987794.0716937885</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3939,7 +3727,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3956,32 +3744,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="C86" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E86" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="F86" t="n">
-        <v>10781.1224</v>
+        <v>24024</v>
       </c>
       <c r="G86" t="n">
-        <v>-514127.2040119704</v>
+        <v>-1011818.071693789</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K86" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3998,32 +3788,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C87" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D87" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E87" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F87" t="n">
-        <v>652.365</v>
+        <v>1804</v>
       </c>
       <c r="G87" t="n">
-        <v>-514779.5690119704</v>
+        <v>-1010014.071693789</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>16</v>
+      </c>
       <c r="K87" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4040,32 +3832,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="C88" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="D88" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="F88" t="n">
-        <v>652.365</v>
+        <v>6211.180124223602</v>
       </c>
       <c r="G88" t="n">
-        <v>-514127.2040119704</v>
+        <v>-1010014.071693789</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K88" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4082,32 +3876,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="D89" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="E89" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>143194.8199</v>
       </c>
       <c r="G89" t="n">
-        <v>-513127.2040119704</v>
+        <v>-866819.2517937885</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K89" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4124,32 +3920,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C90" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="D90" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="E90" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F90" t="n">
-        <v>215231.5757575757</v>
+        <v>144586.3975</v>
       </c>
       <c r="G90" t="n">
-        <v>-297895.6282543947</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>16.2</v>
+      </c>
       <c r="K90" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4166,32 +3964,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C91" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D91" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E91" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F91" t="n">
-        <v>50237.346</v>
+        <v>5000</v>
       </c>
       <c r="G91" t="n">
-        <v>-348132.9742543947</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K91" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4208,32 +4008,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C92" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D92" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E92" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F92" t="n">
-        <v>304.8780487804878</v>
+        <v>6560.7948</v>
       </c>
       <c r="G92" t="n">
-        <v>-348132.9742543947</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K92" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4250,32 +4052,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="C93" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="D93" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="E93" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="F93" t="n">
-        <v>871.8616512195122</v>
+        <v>199.5</v>
       </c>
       <c r="G93" t="n">
-        <v>-348132.9742543947</v>
+        <v>-1011405.649293788</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K93" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4292,32 +4096,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C94" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="D94" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="E94" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F94" t="n">
-        <v>107600</v>
+        <v>194076.4142</v>
       </c>
       <c r="G94" t="n">
-        <v>-240532.9742543947</v>
+        <v>-817329.2350937885</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>16.1</v>
+      </c>
       <c r="K94" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4334,40 +4140,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C95" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D95" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E95" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F95" t="n">
-        <v>86724.9999</v>
+        <v>188050.306</v>
       </c>
       <c r="G95" t="n">
-        <v>-240532.9742543947</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1.019844720496894</v>
+        <v>1</v>
       </c>
       <c r="N95" t="inlineStr"/>
     </row>
@@ -4376,32 +4182,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="C96" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D96" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E96" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F96" t="n">
-        <v>11800</v>
+        <v>30000</v>
       </c>
       <c r="G96" t="n">
-        <v>-252332.9742543947</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4224,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C97" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D97" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E97" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F97" t="n">
-        <v>36115.9999</v>
+        <v>31400</v>
       </c>
       <c r="G97" t="n">
-        <v>-216216.9743543947</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4436,8 +4248,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4448,32 +4266,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="C98" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D98" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E98" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F98" t="n">
-        <v>75657.5866</v>
+        <v>5547.9109</v>
       </c>
       <c r="G98" t="n">
-        <v>-216216.9743543947</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4484,32 +4308,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C99" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D99" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F99" t="n">
-        <v>30200</v>
+        <v>94030.5165</v>
       </c>
       <c r="G99" t="n">
-        <v>-216216.9743543947</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4520,32 +4350,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C100" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="D100" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="E100" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F100" t="n">
-        <v>20753.846</v>
+        <v>8151.0158</v>
       </c>
       <c r="G100" t="n">
-        <v>-216216.9743543947</v>
+        <v>-629278.9290937885</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4556,32 +4392,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="C101" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D101" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E101" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="F101" t="n">
-        <v>117596</v>
+        <v>107023.7132</v>
       </c>
       <c r="G101" t="n">
-        <v>-216216.9743543947</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4592,32 +4434,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C102" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D102" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E102" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F102" t="n">
-        <v>16800</v>
+        <v>173.1707</v>
       </c>
       <c r="G102" t="n">
-        <v>-216216.9743543947</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4628,32 +4476,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C103" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D103" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E103" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F103" t="n">
-        <v>179.0422</v>
+        <v>565.1055</v>
       </c>
       <c r="G103" t="n">
-        <v>-216216.9743543947</v>
+        <v>-522255.2158937885</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4664,32 +4518,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C104" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="D104" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="E104" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="F104" t="n">
-        <v>43979.7437</v>
+        <v>140388.1212</v>
       </c>
       <c r="G104" t="n">
-        <v>-172237.2306543947</v>
+        <v>-381867.0946937885</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4700,32 +4560,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="C105" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="D105" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="E105" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="F105" t="n">
-        <v>41600</v>
+        <v>57400</v>
       </c>
       <c r="G105" t="n">
-        <v>-172237.2306543947</v>
+        <v>-324467.0946937885</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4736,32 +4602,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="C106" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="D106" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="E106" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="F106" t="n">
-        <v>93591.2061</v>
+        <v>99759.97500000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-172237.2306543947</v>
+        <v>-424227.0696937885</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4772,36 +4644,2682 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>107700</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-424227.0696937885</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>129423.8762</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-424227.0696937885</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-424227.0696937885</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-424217.0696937885</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>49140.4666</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-473357.5362937885</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D112" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>148930.7168</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-324426.8194937885</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34445.1976</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-358872.0170937885</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>108221.2894</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>69710.04059999999</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>57406.7043</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12201.1463</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>131972.1143</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>191093.0711</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>42151.1041</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1.039585987261147</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>27099.1448</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15402</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-467093.3064937886</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-466093.3064937886</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>63535.0317</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-466093.3064937886</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>24782.8189</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-490876.1253937886</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>122039.2383</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-368836.8870937886</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>90733.4811</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-368836.8870937886</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>169678.6416</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-538515.5286937886</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>73455.2547</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-538515.5286937886</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>91477.52740000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-447038.0012937885</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3030.303</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-444007.6982937885</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>45600</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-444007.6982937885</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>24524.67</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-444007.6982937885</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>71600</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-515607.6982937885</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8196.561</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-515607.6982937885</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-515607.6982937885</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>63753.4804</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-515607.6982937885</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>187089.8356</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-328517.8626937885</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>50467.5454</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-378985.4080937885</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>181.8181818181818</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>500</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>618.2063181818182</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>108800</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>40200</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>60.60606060606061</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>303.030303030303</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-378803.5899119704</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>131781.0122</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20964.2792</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12417</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>89405.24400000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>141642</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-510584.6021119704</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31257.3981</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-479327.2040119704</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>34800</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>22920.0199</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10781.1224</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>652.365</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-514779.5690119704</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>652.365</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-514127.2040119704</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-513127.2040119704</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>215231.5757575757</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-297895.6282543947</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>50237.346</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-348132.9742543947</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>304.8780487804878</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-348132.9742543947</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>871.8616512195122</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-348132.9742543947</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>107600</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-240532.9742543947</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>86724.9999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-240532.9742543947</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E167" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11800</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-252332.9742543947</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>36115.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>75657.5866</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>30200</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20753.846</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>117596</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>16800</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>179.0422</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-216216.9743543947</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C175" t="n">
         <v>16.7</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D175" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E175" t="n">
         <v>16.6</v>
       </c>
-      <c r="D107" t="n">
+      <c r="F175" t="n">
+        <v>43979.7437</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-172237.2306543947</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>16.7</v>
       </c>
-      <c r="E107" t="n">
+      <c r="C176" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>41600</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-172237.2306543947</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>93591.2061</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-172237.2306543947</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C178" t="n">
         <v>16.6</v>
       </c>
-      <c r="F107" t="n">
+      <c r="D178" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F178" t="n">
         <v>55019.2534</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G178" t="n">
         <v>-227256.4840543947</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,19 @@
         <v>23258.71540621116</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15.8</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1348,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1387,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1424,23 @@
         <v>-254604.7737937889</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1467,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1506,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1543,23 @@
         <v>-565100.1964937889</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,22 +1584,21 @@
         <v>-563581.0549937888</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K35" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1686,22 +1625,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1728,22 +1664,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,16 +1703,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1742,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1781,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1820,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,18 +1857,23 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1948,18 +1898,23 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,22 +1939,23 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="J44" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,26 +1980,21 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2068,26 +2019,21 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2112,22 +2058,21 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,26 +2097,21 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2196,26 +2136,21 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K49" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,22 +2175,21 @@
         <v>-1351709.268193789</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K50" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2280,26 +2214,21 @@
         <v>-1369712.260593789</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>15.8</v>
       </c>
-      <c r="K51" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2324,26 +2253,21 @@
         <v>-1320520.342893789</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2368,22 +2292,21 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>15.8</v>
       </c>
-      <c r="K53" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2408,26 +2331,21 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K54" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2452,26 +2370,21 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2496,22 +2409,21 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2536,26 +2448,21 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2580,26 +2487,21 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2624,22 +2526,21 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2664,26 +2565,23 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="J60" t="n">
         <v>15.8</v>
       </c>
-      <c r="K60" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2708,26 +2606,23 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="J61" t="n">
         <v>15.8</v>
       </c>
-      <c r="K61" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2752,26 +2647,23 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="J62" t="n">
         <v>15.8</v>
       </c>
-      <c r="K62" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2798,22 +2690,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2840,22 +2729,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2882,22 +2768,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2924,22 +2807,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2966,22 +2846,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3006,24 +2883,23 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3050,22 +2926,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3092,22 +2965,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3132,24 +3002,23 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3174,24 +3043,23 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>15.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3218,22 +3086,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3260,22 +3125,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3302,22 +3164,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3344,22 +3203,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3386,22 +3242,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3428,22 +3281,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3468,24 +3318,23 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="J79" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3510,24 +3359,23 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3554,22 +3402,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3594,24 +3439,23 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3638,22 +3482,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3680,22 +3521,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3722,22 +3560,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3762,26 +3597,21 @@
         <v>-1011818.071693789</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3806,26 +3636,21 @@
         <v>-1010014.071693789</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>16</v>
-      </c>
-      <c r="K87" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3850,26 +3675,21 @@
         <v>-1010014.071693789</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3894,26 +3714,21 @@
         <v>-866819.2517937885</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3938,26 +3753,21 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3982,26 +3792,21 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4026,26 +3831,21 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K92" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4070,26 +3870,21 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4114,26 +3909,23 @@
         <v>-817329.2350937885</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="J94" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4158,24 +3950,23 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>16.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4202,22 +3993,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4244,22 +4032,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4286,22 +4071,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4328,22 +4110,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4370,22 +4149,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4412,22 +4188,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4454,22 +4227,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4496,22 +4266,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4538,22 +4305,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4580,22 +4344,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4620,24 +4381,21 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.039303797468355</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4662,24 +4420,15 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4704,24 +4453,15 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4746,24 +4486,15 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4790,22 +4521,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4832,22 +4554,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4874,22 +4587,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4916,22 +4620,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4958,22 +4653,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5000,22 +4686,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5042,22 +4719,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5084,22 +4752,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5126,22 +4785,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5168,22 +4818,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5210,22 +4851,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5252,22 +4884,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1.039585987261147</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5294,16 +4917,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5330,16 +4950,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5366,16 +4983,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5400,18 +5014,15 @@
         <v>-466093.3064937886</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5438,16 +5049,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5474,16 +5082,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5510,16 +5115,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5544,18 +5146,15 @@
         <v>-538515.5286937886</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5582,16 +5181,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5618,16 +5214,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5654,16 +5247,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5688,18 +5278,15 @@
         <v>-444007.6982937885</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5726,16 +5313,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5762,16 +5346,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5798,16 +5379,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5834,16 +5412,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5870,16 +5445,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5906,16 +5478,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5942,16 +5511,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5976,18 +5542,15 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6014,16 +5577,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6050,16 +5610,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6086,16 +5643,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6122,16 +5676,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6158,16 +5709,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6194,16 +5742,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6230,16 +5775,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6266,16 +5808,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6302,16 +5841,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6338,16 +5874,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6374,16 +5907,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6410,16 +5940,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6446,16 +5973,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6482,16 +6006,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6518,16 +6039,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6554,16 +6072,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6590,16 +6105,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6626,16 +6138,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6662,16 +6171,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6698,16 +6204,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6734,16 +6237,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6770,16 +6270,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6806,16 +6303,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6842,16 +6336,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6878,16 +6369,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6914,16 +6402,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6950,16 +6435,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6986,16 +6468,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7022,16 +6501,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7058,16 +6534,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7094,16 +6567,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7130,16 +6600,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7166,16 +6633,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7202,16 +6666,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7238,16 +6699,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7274,16 +6732,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7310,18 +6765,15 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,14 +1309,10 @@
         <v>23258.71540621116</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
@@ -1349,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,19 +1408,11 @@
         <v>-254604.7737937889</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1468,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1507,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1543,19 +1507,11 @@
         <v>-565100.1964937889</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1857,19 +1771,11 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1898,19 +1804,11 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1939,19 +1837,11 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1983,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2022,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2061,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2100,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2139,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2178,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2217,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2295,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2373,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2412,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2451,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2487,17 +2299,15 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J58" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.7</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2526,15 +2336,17 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2565,17 +2377,17 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>15.8</v>
       </c>
       <c r="J60" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2606,7 +2418,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>15.8</v>
@@ -2614,11 +2426,7 @@
       <c r="J61" t="n">
         <v>15.8</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2647,7 +2455,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>15.8</v>
@@ -2657,7 +2465,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2805,9 +2613,11 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J66" t="n">
         <v>15.8</v>
       </c>
@@ -2844,9 +2654,11 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J67" t="n">
         <v>15.8</v>
       </c>
@@ -2883,7 +2695,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>15.8</v>
@@ -2924,9 +2736,11 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J69" t="n">
         <v>15.8</v>
       </c>
@@ -2963,9 +2777,11 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J70" t="n">
         <v>15.8</v>
       </c>
@@ -3002,7 +2818,7 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>15.8</v>
@@ -3043,7 +2859,7 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>15.9</v>
@@ -3084,9 +2900,11 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J73" t="n">
         <v>15.8</v>
       </c>
@@ -3123,9 +2941,11 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J74" t="n">
         <v>15.8</v>
       </c>
@@ -3162,9 +2982,11 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J75" t="n">
         <v>15.8</v>
       </c>
@@ -3201,9 +3023,11 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
       <c r="J76" t="n">
         <v>15.8</v>
       </c>
@@ -3318,11 +3142,9 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>15.8</v>
       </c>
@@ -3359,7 +3181,7 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>16</v>
@@ -3400,9 +3222,11 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
       <c r="J81" t="n">
         <v>15.8</v>
       </c>
@@ -3439,7 +3263,7 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>16</v>
@@ -3480,9 +3304,11 @@
         <v>-987794.0716937885</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>16</v>
+      </c>
       <c r="J83" t="n">
         <v>15.8</v>
       </c>
@@ -3636,9 +3462,11 @@
         <v>-1010014.071693789</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>16</v>
+      </c>
       <c r="J87" t="n">
         <v>15.8</v>
       </c>
@@ -3675,9 +3503,11 @@
         <v>-1010014.071693789</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J88" t="n">
         <v>15.8</v>
       </c>
@@ -3753,9 +3583,11 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>16.2</v>
+      </c>
       <c r="J90" t="n">
         <v>15.8</v>
       </c>
@@ -3792,9 +3624,11 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J91" t="n">
         <v>15.8</v>
       </c>
@@ -3831,9 +3665,11 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J92" t="n">
         <v>15.8</v>
       </c>
@@ -3870,9 +3706,11 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16.1</v>
+      </c>
       <c r="J93" t="n">
         <v>15.8</v>
       </c>
@@ -3909,7 +3747,7 @@
         <v>-817329.2350937885</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>16.1</v>
@@ -3950,7 +3788,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>16.2</v>
@@ -3991,9 +3829,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J96" t="n">
         <v>15.8</v>
       </c>
@@ -4030,9 +3870,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J97" t="n">
         <v>15.8</v>
       </c>
@@ -4069,9 +3911,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J98" t="n">
         <v>15.8</v>
       </c>
@@ -4108,9 +3952,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J99" t="n">
         <v>15.8</v>
       </c>
@@ -4147,9 +3993,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J100" t="n">
         <v>15.8</v>
       </c>
@@ -4186,9 +4034,11 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J101" t="n">
         <v>15.8</v>
       </c>
@@ -4381,7 +4231,7 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
@@ -4389,11 +4239,11 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.039303797468355</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -4420,11 +4270,17 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4309,17 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4348,17 @@
         <v>-424227.0696937885</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4522,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4555,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4588,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4621,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4654,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4687,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4720,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4753,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4786,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4819,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4852,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4885,8 +4819,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4918,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4951,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4984,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5014,11 +4972,17 @@
         <v>-466093.3064937886</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5050,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5083,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5116,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5146,11 +5128,17 @@
         <v>-538515.5286937886</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5182,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5215,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5248,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5278,11 +5284,17 @@
         <v>-444007.6982937885</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5314,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5347,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5380,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5413,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5446,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5476,13 +5518,19 @@
         <v>-328517.8626937885</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>1.039303797468355</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5509,7 +5557,7 @@
         <v>-378985.4080937885</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5542,7 +5590,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5575,7 +5623,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5608,7 +5656,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5641,7 +5689,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5674,7 +5722,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5707,7 +5755,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5740,7 +5788,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5773,7 +5821,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5806,7 +5854,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5839,7 +5887,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5872,7 +5920,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5905,7 +5953,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5938,7 +5986,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5971,7 +6019,7 @@
         <v>-479327.2040119704</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6004,7 +6052,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6037,7 +6085,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6070,7 +6118,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6103,7 +6151,7 @@
         <v>-514779.5690119704</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6136,7 +6184,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6169,7 +6217,7 @@
         <v>-513127.2040119704</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6202,7 +6250,7 @@
         <v>-297895.6282543947</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6235,7 +6283,7 @@
         <v>-348132.9742543947</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6268,7 +6316,7 @@
         <v>-348132.9742543947</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6301,7 +6349,7 @@
         <v>-348132.9742543947</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6334,7 +6382,7 @@
         <v>-240532.9742543947</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6367,7 +6415,7 @@
         <v>-240532.9742543947</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6400,7 +6448,7 @@
         <v>-252332.9742543947</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6433,7 +6481,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6466,7 +6514,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6499,7 +6547,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6532,7 +6580,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6565,7 +6613,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6598,7 +6646,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6631,7 +6679,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6664,7 +6712,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6697,7 +6745,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6730,7 +6778,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6763,7 +6811,7 @@
         <v>-227256.4840543947</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6774,6 +6822,6 @@
       <c r="M178" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2002,10 +2002,14 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2035,11 +2039,19 @@
         <v>-1351709.268193789</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2083,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,10 +2119,14 @@
         <v>-1320520.342893789</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2134,11 +2156,19 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2200,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,10 +2236,14 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2233,11 +2273,19 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2314,19 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2613,11 +2669,9 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>15.8</v>
       </c>
@@ -2654,11 +2708,9 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>15.8</v>
       </c>
@@ -2695,11 +2747,9 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>15.8</v>
       </c>
@@ -2736,11 +2786,9 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>15.8</v>
       </c>
@@ -2777,11 +2825,9 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>15.8</v>
       </c>
@@ -2818,11 +2864,9 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>15.8</v>
       </c>
@@ -2859,11 +2903,9 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>15.8</v>
       </c>
@@ -2900,11 +2942,9 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>15.8</v>
       </c>
@@ -2941,11 +2981,9 @@
         <v>-1081963.301693788</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>15.8</v>
       </c>
@@ -2982,11 +3020,9 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>15.8</v>
       </c>
@@ -3023,11 +3059,9 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>15.8</v>
       </c>
@@ -3181,11 +3215,9 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>15.8</v>
       </c>
@@ -3222,11 +3254,9 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>15.8</v>
       </c>
@@ -3263,11 +3293,9 @@
         <v>-993563.3016937885</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>15.8</v>
       </c>
@@ -3304,11 +3332,9 @@
         <v>-987794.0716937885</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>15.8</v>
       </c>
@@ -3462,11 +3488,9 @@
         <v>-1010014.071693789</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>15.8</v>
       </c>
@@ -3503,11 +3527,9 @@
         <v>-1010014.071693789</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>15.8</v>
       </c>
@@ -3583,11 +3605,9 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>15.8</v>
       </c>
@@ -3624,21 +3644,19 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>16.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>15.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>1.013987341772152</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -3665,19 +3683,11 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3706,19 +3716,11 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3747,19 +3749,11 @@
         <v>-817329.2350937885</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3788,19 +3782,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3829,19 +3815,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3870,19 +3848,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3911,19 +3881,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3952,19 +3914,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3993,19 +3947,11 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4034,19 +3980,11 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4075,17 +4013,11 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4114,17 +4046,11 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4153,17 +4079,11 @@
         <v>-381867.0946937885</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4195,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4234,14 +4148,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4273,14 +4181,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4312,14 +4214,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4351,14 +4247,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4390,14 +4280,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4429,14 +4313,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4468,14 +4346,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +4379,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +4445,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4624,14 +4478,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4663,14 +4511,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4702,14 +4544,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4741,14 +4577,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4780,14 +4610,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4819,14 +4643,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4858,14 +4676,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4897,14 +4709,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4936,14 +4742,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4975,14 +4775,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5014,14 +4808,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5053,14 +4841,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5092,14 +4874,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5131,14 +4907,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5170,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4973,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5248,14 +5006,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5287,14 +5039,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5326,14 +5072,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5365,14 +5105,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5404,14 +5138,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5443,14 +5171,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5482,14 +5204,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5518,19 +5234,13 @@
         <v>-328517.8626937885</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>1.039303797468355</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5557,7 +5267,7 @@
         <v>-378985.4080937885</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5590,7 +5300,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5623,7 +5333,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5656,7 +5366,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5689,7 +5399,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5722,7 +5432,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5755,7 +5465,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5788,7 +5498,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5821,7 +5531,7 @@
         <v>-378803.5899119704</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5854,7 +5564,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5887,7 +5597,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5920,7 +5630,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5953,7 +5663,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5986,7 +5696,7 @@
         <v>-510584.6021119704</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6019,7 +5729,7 @@
         <v>-479327.2040119704</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6052,7 +5762,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6085,7 +5795,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6118,7 +5828,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6151,7 +5861,7 @@
         <v>-514779.5690119704</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6184,7 +5894,7 @@
         <v>-514127.2040119704</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6217,7 +5927,7 @@
         <v>-513127.2040119704</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6250,7 +5960,7 @@
         <v>-297895.6282543947</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6283,7 +5993,7 @@
         <v>-348132.9742543947</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6316,7 +6026,7 @@
         <v>-348132.9742543947</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6349,7 +6059,7 @@
         <v>-348132.9742543947</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6382,7 +6092,7 @@
         <v>-240532.9742543947</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6415,7 +6125,7 @@
         <v>-240532.9742543947</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6448,7 +6158,7 @@
         <v>-252332.9742543947</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6481,7 +6191,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6514,7 +6224,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6547,7 +6257,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6580,7 +6290,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6613,7 +6323,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6646,7 +6356,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6679,7 +6389,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6712,7 +6422,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6745,7 +6455,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6778,7 +6488,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6811,7 +6521,7 @@
         <v>-227256.4840543947</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6822,6 +6532,6 @@
       <c r="M178" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -2002,14 +2002,10 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2039,1754 +2035,1536 @@
         <v>-1351709.268193789</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>18002.9924</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1369712.260593789</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>49191.9177</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1320520.342893789</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3426.0128</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1323946.355693789</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>53682.0883</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1323946.355693789</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3648.019</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1323946.355693789</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>69757.7934</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1323946.355693789</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>399068.5075</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1323946.355693789</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>275.7058</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1323946.355693789</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>36800</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>105400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>66633.60679999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15062820.1368</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6949277.9084</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11383173.0156</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11420539.4088</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11442160.6224</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>6772441.7829</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9003381.189999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13798140.608</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8410202.2871</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1287146.355693789</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>205183.054</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1081963.301693788</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12868.4538</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1081963.301693788</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1081963.301693788</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>22247.0731</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1081963.301693788</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>16</v>
+      </c>
+      <c r="C75" t="n">
+        <v>16</v>
+      </c>
+      <c r="D75" t="n">
+        <v>16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>16</v>
+      </c>
+      <c r="F75" t="n">
+        <v>88400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16</v>
+      </c>
+      <c r="D76" t="n">
+        <v>16</v>
+      </c>
+      <c r="E76" t="n">
+        <v>16</v>
+      </c>
+      <c r="F76" t="n">
+        <v>141800</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16</v>
+      </c>
+      <c r="C77" t="n">
+        <v>16</v>
+      </c>
+      <c r="D77" t="n">
+        <v>16</v>
+      </c>
+      <c r="E77" t="n">
+        <v>16</v>
+      </c>
+      <c r="F77" t="n">
+        <v>164506.8082</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="n">
+        <v>16</v>
+      </c>
+      <c r="D78" t="n">
+        <v>16</v>
+      </c>
+      <c r="E78" t="n">
+        <v>16</v>
+      </c>
+      <c r="F78" t="n">
+        <v>49600</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>16</v>
+      </c>
+      <c r="C79" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" t="n">
+        <v>16</v>
+      </c>
+      <c r="F79" t="n">
+        <v>69.3091</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>16</v>
+      </c>
+      <c r="C80" t="n">
+        <v>16</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>72659.473</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>16</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16</v>
+      </c>
+      <c r="E81" t="n">
+        <v>16</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8790.075999999999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>16</v>
+      </c>
+      <c r="D82" t="n">
+        <v>16</v>
+      </c>
+      <c r="E82" t="n">
+        <v>16</v>
+      </c>
+      <c r="F82" t="n">
+        <v>30395.4285</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-993563.3016937885</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5769.23</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-987794.0716937885</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11439.5287</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-987794.0716937885</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>50192.2173</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-987794.0716937885</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" t="n">
+        <v>16</v>
+      </c>
+      <c r="D86" t="n">
+        <v>16</v>
+      </c>
+      <c r="E86" t="n">
+        <v>16</v>
+      </c>
+      <c r="F86" t="n">
+        <v>24024</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1011818.071693789</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1804</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1010014.071693789</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6211.180124223602</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1010014.071693789</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>16</v>
+      </c>
+      <c r="F89" t="n">
+        <v>143194.8199</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-866819.2517937885</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>144586.3975</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1011405.649293788</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1011405.649293788</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D51" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E51" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>18002.9924</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1369712.260593789</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6560.7948</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1011405.649293788</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D52" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F52" t="n">
-        <v>49191.9177</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1320520.342893789</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D53" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3426.0128</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1011405.649293788</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>194076.4142</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-817329.2350937885</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C54" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D54" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E54" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>53682.0883</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>188050.306</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-629278.9290937885</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3648.019</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>69757.7934</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>399068.5075</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F58" t="n">
-        <v>275.7058</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>36800</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>105400</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F61" t="n">
-        <v>66633.60679999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D62" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15062820.1368</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J62" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D63" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F63" t="n">
-        <v>6949277.9084</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>11383173.0156</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>11420539.4088</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D66" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E66" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>11442160.6224</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C67" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>6772441.7829</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>9003381.189999999</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D69" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E69" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>13798140.608</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D70" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8410202.2871</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>205183.054</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C72" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D72" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F72" t="n">
-        <v>12868.4538</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C73" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D73" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1403</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>22247.0731</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>16</v>
-      </c>
-      <c r="C75" t="n">
-        <v>16</v>
-      </c>
-      <c r="D75" t="n">
-        <v>16</v>
-      </c>
-      <c r="E75" t="n">
-        <v>16</v>
-      </c>
-      <c r="F75" t="n">
-        <v>88400</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>16</v>
-      </c>
-      <c r="C76" t="n">
-        <v>16</v>
-      </c>
-      <c r="D76" t="n">
-        <v>16</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16</v>
-      </c>
-      <c r="F76" t="n">
-        <v>141800</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>16</v>
-      </c>
-      <c r="C77" t="n">
-        <v>16</v>
-      </c>
-      <c r="D77" t="n">
-        <v>16</v>
-      </c>
-      <c r="E77" t="n">
-        <v>16</v>
-      </c>
-      <c r="F77" t="n">
-        <v>164506.8082</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>16</v>
-      </c>
-      <c r="C78" t="n">
-        <v>16</v>
-      </c>
-      <c r="D78" t="n">
-        <v>16</v>
-      </c>
-      <c r="E78" t="n">
-        <v>16</v>
-      </c>
-      <c r="F78" t="n">
-        <v>49600</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>16</v>
-      </c>
-      <c r="C79" t="n">
-        <v>16</v>
-      </c>
-      <c r="D79" t="n">
-        <v>16</v>
-      </c>
-      <c r="E79" t="n">
-        <v>16</v>
-      </c>
-      <c r="F79" t="n">
-        <v>69.3091</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>16</v>
-      </c>
-      <c r="C80" t="n">
-        <v>16</v>
-      </c>
-      <c r="D80" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E80" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F80" t="n">
-        <v>72659.473</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>16</v>
-      </c>
-      <c r="C81" t="n">
-        <v>16</v>
-      </c>
-      <c r="D81" t="n">
-        <v>16</v>
-      </c>
-      <c r="E81" t="n">
-        <v>16</v>
-      </c>
-      <c r="F81" t="n">
-        <v>8790.075999999999</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>16</v>
-      </c>
-      <c r="C82" t="n">
-        <v>16</v>
-      </c>
-      <c r="D82" t="n">
-        <v>16</v>
-      </c>
-      <c r="E82" t="n">
-        <v>16</v>
-      </c>
-      <c r="F82" t="n">
-        <v>30395.4285</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>5769.23</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-987794.0716937885</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C84" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>11439.5287</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-987794.0716937885</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C85" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>50192.2173</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-987794.0716937885</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>16</v>
-      </c>
-      <c r="C86" t="n">
-        <v>16</v>
-      </c>
-      <c r="D86" t="n">
-        <v>16</v>
-      </c>
-      <c r="E86" t="n">
-        <v>16</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24024</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1011818.071693789</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1804</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1010014.071693789</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>6211.180124223602</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1010014.071693789</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>16</v>
-      </c>
-      <c r="C89" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E89" t="n">
-        <v>16</v>
-      </c>
-      <c r="F89" t="n">
-        <v>143194.8199</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-866819.2517937885</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>144586.3975</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1.013987341772152</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>6560.7948</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>194076.4142</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-817329.2350937885</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>188050.306</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3815,7 +3593,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3848,7 +3626,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3881,7 +3659,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3914,7 +3692,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3947,7 +3725,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3980,7 +3758,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4013,7 +3791,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4046,7 +3824,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4079,7 +3857,7 @@
         <v>-381867.0946937885</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4772,7 +4550,7 @@
         <v>-466093.3064937886</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4805,7 +4583,7 @@
         <v>-490876.1253937886</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4871,7 +4649,7 @@
         <v>-368836.8870937886</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4904,7 +4682,7 @@
         <v>-538515.5286937886</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5036,7 +4814,7 @@
         <v>-444007.6982937885</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5069,7 +4847,7 @@
         <v>-444007.6982937885</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6257,7 +6035,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6356,7 +6134,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6389,7 +6167,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6455,7 +6233,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6488,7 +6266,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6521,7 +6299,7 @@
         <v>-227256.4840543947</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest SNT.xlsx
+++ b/BackTest/2019-11-02 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3000</v>
       </c>
       <c r="G2" t="n">
-        <v>90144.71739999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>27310.55900621118</v>
       </c>
       <c r="G3" t="n">
-        <v>117455.2764062112</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>310.5590062111801</v>
       </c>
       <c r="G4" t="n">
-        <v>117455.2764062112</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>131.2422</v>
       </c>
       <c r="G5" t="n">
-        <v>117455.2764062112</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>143.913</v>
       </c>
       <c r="G6" t="n">
-        <v>117455.2764062112</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>281.25</v>
       </c>
       <c r="G7" t="n">
-        <v>117174.0264062112</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>24868.42</v>
       </c>
       <c r="G8" t="n">
-        <v>117174.0264062112</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>266</v>
       </c>
       <c r="G9" t="n">
-        <v>116908.0264062112</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>20207</v>
       </c>
       <c r="G10" t="n">
-        <v>137115.0264062112</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>106620.013</v>
       </c>
       <c r="G11" t="n">
-        <v>30495.01340621116</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1579.2329</v>
       </c>
       <c r="G12" t="n">
-        <v>32074.24630621116</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>19280.0641</v>
       </c>
       <c r="G13" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>17653.7499</v>
       </c>
       <c r="G14" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3281.6007</v>
       </c>
       <c r="G15" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>365438</v>
       </c>
       <c r="G16" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>43401.1429</v>
       </c>
       <c r="G17" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>51433.4015</v>
       </c>
       <c r="G18" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3129.5003</v>
       </c>
       <c r="G19" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>24885.2895</v>
       </c>
       <c r="G20" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>29896.2525</v>
       </c>
       <c r="G21" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>63115.283</v>
       </c>
       <c r="G22" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>105</v>
       </c>
       <c r="G23" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>12794.18220621116</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>738.8315</v>
       </c>
       <c r="G25" t="n">
-        <v>12055.35070621116</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>54644.5881</v>
       </c>
       <c r="G26" t="n">
-        <v>12055.35070621116</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>24472.547</v>
       </c>
       <c r="G27" t="n">
-        <v>12055.35070621116</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>11203.3647</v>
       </c>
       <c r="G28" t="n">
-        <v>23258.71540621116</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7440</v>
       </c>
       <c r="G29" t="n">
-        <v>23258.71540621116</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>56376.1978</v>
       </c>
       <c r="G30" t="n">
-        <v>23258.71540621116</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>277863.4892</v>
       </c>
       <c r="G31" t="n">
-        <v>-254604.7737937889</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>310495.4227</v>
       </c>
       <c r="G32" t="n">
-        <v>-565100.1964937889</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>7767.1427</v>
       </c>
       <c r="G33" t="n">
-        <v>-565100.1964937889</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>71375.1014</v>
       </c>
       <c r="G34" t="n">
-        <v>-565100.1964937889</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1519.1415</v>
       </c>
       <c r="G35" t="n">
-        <v>-563581.0549937888</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>191404.4058</v>
       </c>
       <c r="G36" t="n">
-        <v>-754985.4607937888</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>24000</v>
       </c>
       <c r="G37" t="n">
-        <v>-730985.4607937888</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>40648</v>
       </c>
       <c r="G38" t="n">
-        <v>-730985.4607937888</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>15000</v>
       </c>
       <c r="G39" t="n">
-        <v>-730985.4607937888</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>635540.9846</v>
       </c>
       <c r="G40" t="n">
-        <v>-1366526.445393789</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>12291.5923</v>
       </c>
       <c r="G41" t="n">
-        <v>-1366526.445393789</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1153.846</v>
       </c>
       <c r="G42" t="n">
-        <v>-1366526.445393789</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>173729.69</v>
       </c>
       <c r="G43" t="n">
-        <v>-1366526.445393789</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,19 @@
         <v>20041.9154</v>
       </c>
       <c r="G44" t="n">
-        <v>-1366526.445393789</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1737,23 @@
         <v>1075.8114</v>
       </c>
       <c r="G45" t="n">
-        <v>-1366526.445393789</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1775,21 @@
         <v>79026.5408</v>
       </c>
       <c r="G46" t="n">
-        <v>-1366526.445393789</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1811,19 @@
         <v>37419.4052</v>
       </c>
       <c r="G47" t="n">
-        <v>-1366526.445393789</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1845,23 @@
         <v>10090.3004</v>
       </c>
       <c r="G48" t="n">
-        <v>-1366526.445393789</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1883,23 @@
         <v>46405.8494</v>
       </c>
       <c r="G49" t="n">
-        <v>-1366526.445393789</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1921,19 @@
         <v>14817.1772</v>
       </c>
       <c r="G50" t="n">
-        <v>-1351709.268193789</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1955,23 @@
         <v>18002.9924</v>
       </c>
       <c r="G51" t="n">
-        <v>-1369712.260593789</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1993,23 @@
         <v>49191.9177</v>
       </c>
       <c r="G52" t="n">
-        <v>-1320520.342893789</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2031,19 @@
         <v>3426.0128</v>
       </c>
       <c r="G53" t="n">
-        <v>-1323946.355693789</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>15.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2065,23 @@
         <v>53682.0883</v>
       </c>
       <c r="G54" t="n">
-        <v>-1323946.355693789</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2103,23 @@
         <v>3648.019</v>
       </c>
       <c r="G55" t="n">
-        <v>-1323946.355693789</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2141,15 @@
         <v>69757.7934</v>
       </c>
       <c r="G56" t="n">
-        <v>-1323946.355693789</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2171,19 @@
         <v>399068.5075</v>
       </c>
       <c r="G57" t="n">
-        <v>-1323946.355693789</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2205,23 @@
         <v>275.7058</v>
       </c>
       <c r="G58" t="n">
-        <v>-1323946.355693789</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2243,23 @@
         <v>36800</v>
       </c>
       <c r="G59" t="n">
-        <v>-1287146.355693789</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>15.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2281,15 @@
         <v>105400</v>
       </c>
       <c r="G60" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2311,15 @@
         <v>66633.60679999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2341,15 @@
         <v>15062820.1368</v>
       </c>
       <c r="G62" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2371,15 @@
         <v>6949277.9084</v>
       </c>
       <c r="G63" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2401,15 @@
         <v>11383173.0156</v>
       </c>
       <c r="G64" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2431,15 @@
         <v>11420539.4088</v>
       </c>
       <c r="G65" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2461,15 @@
         <v>11442160.6224</v>
       </c>
       <c r="G66" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2491,15 @@
         <v>6772441.7829</v>
       </c>
       <c r="G67" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2521,15 @@
         <v>9003381.189999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2551,15 @@
         <v>13798140.608</v>
       </c>
       <c r="G69" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2581,15 @@
         <v>8410202.2871</v>
       </c>
       <c r="G70" t="n">
-        <v>-1287146.355693789</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2611,15 @@
         <v>205183.054</v>
       </c>
       <c r="G71" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2641,15 @@
         <v>12868.4538</v>
       </c>
       <c r="G72" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2671,15 @@
         <v>1403</v>
       </c>
       <c r="G73" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2701,15 @@
         <v>22247.0731</v>
       </c>
       <c r="G74" t="n">
-        <v>-1081963.301693788</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2731,15 @@
         <v>88400</v>
       </c>
       <c r="G75" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2761,15 @@
         <v>141800</v>
       </c>
       <c r="G76" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2791,15 @@
         <v>164506.8082</v>
       </c>
       <c r="G77" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2821,15 @@
         <v>49600</v>
       </c>
       <c r="G78" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2851,15 @@
         <v>69.3091</v>
       </c>
       <c r="G79" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2881,15 @@
         <v>72659.473</v>
       </c>
       <c r="G80" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2911,15 @@
         <v>8790.075999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2941,15 @@
         <v>30395.4285</v>
       </c>
       <c r="G82" t="n">
-        <v>-993563.3016937885</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2971,15 @@
         <v>5769.23</v>
       </c>
       <c r="G83" t="n">
-        <v>-987794.0716937885</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3001,15 @@
         <v>11439.5287</v>
       </c>
       <c r="G84" t="n">
-        <v>-987794.0716937885</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3031,15 @@
         <v>50192.2173</v>
       </c>
       <c r="G85" t="n">
-        <v>-987794.0716937885</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3061,15 @@
         <v>24024</v>
       </c>
       <c r="G86" t="n">
-        <v>-1011818.071693789</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3091,15 @@
         <v>1804</v>
       </c>
       <c r="G87" t="n">
-        <v>-1010014.071693789</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3121,15 @@
         <v>6211.180124223602</v>
       </c>
       <c r="G88" t="n">
-        <v>-1010014.071693789</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3151,15 @@
         <v>143194.8199</v>
       </c>
       <c r="G89" t="n">
-        <v>-866819.2517937885</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,22 +3181,15 @@
         <v>144586.3975</v>
       </c>
       <c r="G90" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3389,26 +3211,15 @@
         <v>5000</v>
       </c>
       <c r="G91" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3430,26 +3241,15 @@
         <v>6560.7948</v>
       </c>
       <c r="G92" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3471,22 +3271,15 @@
         <v>199.5</v>
       </c>
       <c r="G93" t="n">
-        <v>-1011405.649293788</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3508,26 +3301,15 @@
         <v>194076.4142</v>
       </c>
       <c r="G94" t="n">
-        <v>-817329.2350937885</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3549,26 +3331,15 @@
         <v>188050.306</v>
       </c>
       <c r="G95" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3590,18 +3361,15 @@
         <v>30000</v>
       </c>
       <c r="G96" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,18 +3391,15 @@
         <v>31400</v>
       </c>
       <c r="G97" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3656,18 +3421,15 @@
         <v>5547.9109</v>
       </c>
       <c r="G98" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3689,18 +3451,15 @@
         <v>94030.5165</v>
       </c>
       <c r="G99" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,18 +3481,15 @@
         <v>8151.0158</v>
       </c>
       <c r="G100" t="n">
-        <v>-629278.9290937885</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3755,18 +3511,15 @@
         <v>107023.7132</v>
       </c>
       <c r="G101" t="n">
-        <v>-522255.2158937885</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3788,18 +3541,15 @@
         <v>173.1707</v>
       </c>
       <c r="G102" t="n">
-        <v>-522255.2158937885</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3821,18 +3571,15 @@
         <v>565.1055</v>
       </c>
       <c r="G103" t="n">
-        <v>-522255.2158937885</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3854,18 +3601,15 @@
         <v>140388.1212</v>
       </c>
       <c r="G104" t="n">
-        <v>-381867.0946937885</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,18 +3631,15 @@
         <v>57400</v>
       </c>
       <c r="G105" t="n">
-        <v>-324467.0946937885</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3920,18 +3661,15 @@
         <v>99759.97500000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-424227.0696937885</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3953,18 +3691,15 @@
         <v>107700</v>
       </c>
       <c r="G107" t="n">
-        <v>-424227.0696937885</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3986,18 +3721,15 @@
         <v>129423.8762</v>
       </c>
       <c r="G108" t="n">
-        <v>-424227.0696937885</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4019,18 +3751,15 @@
         <v>44000</v>
       </c>
       <c r="G109" t="n">
-        <v>-424227.0696937885</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4052,18 +3781,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-424217.0696937885</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4085,18 +3811,15 @@
         <v>49140.4666</v>
       </c>
       <c r="G111" t="n">
-        <v>-473357.5362937885</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4118,18 +3841,15 @@
         <v>148930.7168</v>
       </c>
       <c r="G112" t="n">
-        <v>-324426.8194937885</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4151,18 +3871,15 @@
         <v>34445.1976</v>
       </c>
       <c r="G113" t="n">
-        <v>-358872.0170937885</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,18 +3901,15 @@
         <v>108221.2894</v>
       </c>
       <c r="G114" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,18 +3931,15 @@
         <v>69710.04059999999</v>
       </c>
       <c r="G115" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,18 +3961,15 @@
         <v>57406.7043</v>
       </c>
       <c r="G116" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4283,18 +3991,15 @@
         <v>12201.1463</v>
       </c>
       <c r="G117" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4316,18 +4021,15 @@
         <v>131972.1143</v>
       </c>
       <c r="G118" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4349,18 +4051,15 @@
         <v>2500</v>
       </c>
       <c r="G119" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4382,18 +4081,15 @@
         <v>191093.0711</v>
       </c>
       <c r="G120" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,18 +4111,15 @@
         <v>42151.1041</v>
       </c>
       <c r="G121" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4448,18 +4141,15 @@
         <v>27099.1448</v>
       </c>
       <c r="G122" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4481,18 +4171,15 @@
         <v>15402</v>
       </c>
       <c r="G123" t="n">
-        <v>-467093.3064937886</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4514,18 +4201,15 @@
         <v>1000</v>
       </c>
       <c r="G124" t="n">
-        <v>-466093.3064937886</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4547,18 +4231,15 @@
         <v>63535.0317</v>
       </c>
       <c r="G125" t="n">
-        <v>-466093.3064937886</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4580,18 +4261,15 @@
         <v>24782.8189</v>
       </c>
       <c r="G126" t="n">
-        <v>-490876.1253937886</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4613,18 +4291,15 @@
         <v>122039.2383</v>
       </c>
       <c r="G127" t="n">
-        <v>-368836.8870937886</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4646,18 +4321,15 @@
         <v>90733.4811</v>
       </c>
       <c r="G128" t="n">
-        <v>-368836.8870937886</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4679,18 +4351,15 @@
         <v>169678.6416</v>
       </c>
       <c r="G129" t="n">
-        <v>-538515.5286937886</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4712,18 +4381,15 @@
         <v>73455.2547</v>
       </c>
       <c r="G130" t="n">
-        <v>-538515.5286937886</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4745,18 +4411,15 @@
         <v>91477.52740000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-447038.0012937885</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4778,18 +4441,15 @@
         <v>3030.303</v>
       </c>
       <c r="G132" t="n">
-        <v>-444007.6982937885</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4811,18 +4471,15 @@
         <v>45600</v>
       </c>
       <c r="G133" t="n">
-        <v>-444007.6982937885</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,18 +4501,15 @@
         <v>24524.67</v>
       </c>
       <c r="G134" t="n">
-        <v>-444007.6982937885</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4877,18 +4531,15 @@
         <v>71600</v>
       </c>
       <c r="G135" t="n">
-        <v>-515607.6982937885</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4910,18 +4561,15 @@
         <v>8196.561</v>
       </c>
       <c r="G136" t="n">
-        <v>-515607.6982937885</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4943,18 +4591,15 @@
         <v>9000</v>
       </c>
       <c r="G137" t="n">
-        <v>-515607.6982937885</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4976,18 +4621,15 @@
         <v>63753.4804</v>
       </c>
       <c r="G138" t="n">
-        <v>-515607.6982937885</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5009,18 +4651,15 @@
         <v>187089.8356</v>
       </c>
       <c r="G139" t="n">
-        <v>-328517.8626937885</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5042,18 +4681,15 @@
         <v>50467.5454</v>
       </c>
       <c r="G140" t="n">
-        <v>-378985.4080937885</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5075,18 +4711,15 @@
         <v>181.8181818181818</v>
       </c>
       <c r="G141" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5108,18 +4741,15 @@
         <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5141,18 +4771,15 @@
         <v>618.2063181818182</v>
       </c>
       <c r="G143" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5174,18 +4801,15 @@
         <v>108800</v>
       </c>
       <c r="G144" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5207,18 +4831,15 @@
         <v>40200</v>
       </c>
       <c r="G145" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5240,18 +4861,15 @@
         <v>60.60606060606061</v>
       </c>
       <c r="G146" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5273,18 +4891,15 @@
         <v>6000</v>
       </c>
       <c r="G147" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5306,18 +4921,15 @@
         <v>303.030303030303</v>
       </c>
       <c r="G148" t="n">
-        <v>-378803.5899119704</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5339,18 +4951,15 @@
         <v>131781.0122</v>
       </c>
       <c r="G149" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5372,18 +4981,15 @@
         <v>20964.2792</v>
       </c>
       <c r="G150" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5405,18 +5011,15 @@
         <v>12417</v>
       </c>
       <c r="G151" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5438,18 +5041,15 @@
         <v>89405.24400000001</v>
       </c>
       <c r="G152" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5471,18 +5071,15 @@
         <v>141642</v>
       </c>
       <c r="G153" t="n">
-        <v>-510584.6021119704</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5504,18 +5101,15 @@
         <v>31257.3981</v>
       </c>
       <c r="G154" t="n">
-        <v>-479327.2040119704</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5537,18 +5131,15 @@
         <v>34800</v>
       </c>
       <c r="G155" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5570,18 +5161,15 @@
         <v>22920.0199</v>
       </c>
       <c r="G156" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5603,18 +5191,15 @@
         <v>10781.1224</v>
       </c>
       <c r="G157" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5636,18 +5221,15 @@
         <v>652.365</v>
       </c>
       <c r="G158" t="n">
-        <v>-514779.5690119704</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5669,18 +5251,15 @@
         <v>652.365</v>
       </c>
       <c r="G159" t="n">
-        <v>-514127.2040119704</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5702,18 +5281,15 @@
         <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>-513127.2040119704</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5735,18 +5311,15 @@
         <v>215231.5757575757</v>
       </c>
       <c r="G161" t="n">
-        <v>-297895.6282543947</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5768,18 +5341,15 @@
         <v>50237.346</v>
       </c>
       <c r="G162" t="n">
-        <v>-348132.9742543947</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5801,18 +5371,15 @@
         <v>304.8780487804878</v>
       </c>
       <c r="G163" t="n">
-        <v>-348132.9742543947</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5834,18 +5401,15 @@
         <v>871.8616512195122</v>
       </c>
       <c r="G164" t="n">
-        <v>-348132.9742543947</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5867,18 +5431,15 @@
         <v>107600</v>
       </c>
       <c r="G165" t="n">
-        <v>-240532.9742543947</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5900,18 +5461,15 @@
         <v>86724.9999</v>
       </c>
       <c r="G166" t="n">
-        <v>-240532.9742543947</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5933,18 +5491,15 @@
         <v>11800</v>
       </c>
       <c r="G167" t="n">
-        <v>-252332.9742543947</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5966,18 +5521,15 @@
         <v>36115.9999</v>
       </c>
       <c r="G168" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5999,18 +5551,15 @@
         <v>75657.5866</v>
       </c>
       <c r="G169" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6032,18 +5581,15 @@
         <v>30200</v>
       </c>
       <c r="G170" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6065,18 +5611,15 @@
         <v>20753.846</v>
       </c>
       <c r="G171" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6098,18 +5641,15 @@
         <v>117596</v>
       </c>
       <c r="G172" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6131,18 +5671,15 @@
         <v>16800</v>
       </c>
       <c r="G173" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6164,18 +5701,15 @@
         <v>179.0422</v>
       </c>
       <c r="G174" t="n">
-        <v>-216216.9743543947</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6197,18 +5731,15 @@
         <v>43979.7437</v>
       </c>
       <c r="G175" t="n">
-        <v>-172237.2306543947</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6230,18 +5761,15 @@
         <v>41600</v>
       </c>
       <c r="G176" t="n">
-        <v>-172237.2306543947</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6263,18 +5791,15 @@
         <v>93591.2061</v>
       </c>
       <c r="G177" t="n">
-        <v>-172237.2306543947</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6296,18 +5821,15 @@
         <v>55019.2534</v>
       </c>
       <c r="G178" t="n">
-        <v>-227256.4840543947</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
